--- a/specifications/4_Wind/ScriptRules_Wind.xlsx
+++ b/specifications/4_Wind/ScriptRules_Wind.xlsx
@@ -1163,24 +1163,6 @@
     <t>* = 0.9</t>
   </si>
   <si>
-    <t>* = 2 (min = 2)</t>
-  </si>
-  <si>
-    <t>* = 2 (min = 1)</t>
-  </si>
-  <si>
-    <t>* = 2 (min = 0.2)</t>
-  </si>
-  <si>
-    <t>* = 3 (min = 2)</t>
-  </si>
-  <si>
-    <t>* = 3 (min = 1)</t>
-  </si>
-  <si>
-    <t>* = 3 (min = 0.2)</t>
-  </si>
-  <si>
     <t>* = 1.3</t>
   </si>
   <si>
@@ -1454,52 +1436,7 @@
     <t>SquirrelMid_Radius</t>
   </si>
   <si>
-    <t>* = 2 (If OTree_Diameter or MTree_Diameter &lt; 3 = 0)</t>
-  </si>
-  <si>
-    <t>* = 2 (If OTree_Diameter or MTree_Diameter &lt; 20 = 0)</t>
-  </si>
-  <si>
-    <t>* = 2 (If OTree_Diameter or MTree_Diameter &lt; 9 = 0)</t>
-  </si>
-  <si>
     <t>* = 0.75</t>
-  </si>
-  <si>
-    <t>* = 1.5 (min = 1)</t>
-  </si>
-  <si>
-    <t>* = 1.5 (min = 75%)</t>
-  </si>
-  <si>
-    <t>* = 2 (min = 75%)</t>
-  </si>
-  <si>
-    <t>* = 2.5 (If OTree_Diameter or MTree_Diameter &lt; 3 = 0) (min = 3)</t>
-  </si>
-  <si>
-    <t>* = 2.5 (If OTree_Diameter or MTree_Diameter &lt; 9 = 0) (min = 6.5)</t>
-  </si>
-  <si>
-    <t>* = 2.5 (If OTree_Diameter or MTree_Diameter &lt; 20 = 0)(min = 7.5)</t>
-  </si>
-  <si>
-    <t>* = 4 (If OTree_Diameter or MTree_Diameter &lt; 3 = 0)(min = 3)</t>
-  </si>
-  <si>
-    <t>* = 4 (If OTree_Diameter or MTree_Diameter &lt; 9 = 0)(min = 6.5)</t>
-  </si>
-  <si>
-    <t>* = 4 (If OTree_Diameter or MTree_Diameter &lt; 20 = 0)(min = 7.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.25 * SWood_1000hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.25 * SWood_10_000hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.25 * SWood_GT10_000hr</t>
   </si>
   <si>
     <t xml:space="preserve"> * = 1.3</t>
@@ -1509,15 +1446,6 @@
   </si>
   <si>
     <t xml:space="preserve"> * = 0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.5 * SWood_1000hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.5 * SWood_10_000hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + = 0.5 * SWood_GT10_000hr</t>
   </si>
   <si>
     <t>* = 1/1.25</t>
@@ -1716,6 +1644,78 @@
   </si>
   <si>
     <t>FB_0291_FCCS_433</t>
+  </si>
+  <si>
+    <t>|* = 2 (If OTree_Diameter or MTree_Diameter &lt; 3 = 0)</t>
+  </si>
+  <si>
+    <t>|* = 2 (If OTree_Diameter or MTree_Diameter &lt; 9 = 0)</t>
+  </si>
+  <si>
+    <t>|* = 2 (If OTree_Diameter or MTree_Diameter &lt; 20 = 0)</t>
+  </si>
+  <si>
+    <t>|* = 2.5 (If OTree_Diameter or MTree_Diameter &lt; 3 = 0) (min = 3)</t>
+  </si>
+  <si>
+    <t>|* = 2.5 (If OTree_Diameter or MTree_Diameter &lt; 9 = 0) (min = 6.5)</t>
+  </si>
+  <si>
+    <t>|* = 2.5 (If OTree_Diameter or MTree_Diameter &lt; 20 = 0)(min = 7.5)</t>
+  </si>
+  <si>
+    <t>|* = 4 (If OTree_Diameter or MTree_Diameter &lt; 3 = 0)(min = 3)</t>
+  </si>
+  <si>
+    <t>|* = 4 (If OTree_Diameter or MTree_Diameter &lt; 9 = 0)(min = 6.5)</t>
+  </si>
+  <si>
+    <t>|* = 4 (If OTree_Diameter or MTree_Diameter &lt; 20 = 0)(min = 7.5)</t>
+  </si>
+  <si>
+    <t>| + = 0.25 * SWood_1000hr</t>
+  </si>
+  <si>
+    <t>| + = 0.25 * SWood_10_000hr</t>
+  </si>
+  <si>
+    <t>| + = 0.25 * SWood_GT10_000hr</t>
+  </si>
+  <si>
+    <t>| + = 0.5 * SWood_1000hr</t>
+  </si>
+  <si>
+    <t>| + = 0.5 * SWood_10_000hr</t>
+  </si>
+  <si>
+    <t>| + = 0.5 * SWood_GT10_000hr</t>
+  </si>
+  <si>
+    <t>* = 1.5, min 1</t>
+  </si>
+  <si>
+    <t>* = 1.5, min 75</t>
+  </si>
+  <si>
+    <t>* = 2, min 2</t>
+  </si>
+  <si>
+    <t>* = 2, min 1</t>
+  </si>
+  <si>
+    <t>* = 2, min 0.2</t>
+  </si>
+  <si>
+    <t>* = 3, min 2</t>
+  </si>
+  <si>
+    <t>* = 3, min 1</t>
+  </si>
+  <si>
+    <t>* = 3, min 0.2</t>
+  </si>
+  <si>
+    <t>* = 2, min 75</t>
   </si>
 </sst>
 </file>
@@ -2738,16 +2738,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="101.28515625" style="26" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="20" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="60.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="20" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="24" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39" style="20" bestFit="1" customWidth="1"/>
@@ -2758,7 +2760,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="20">
         <v>411</v>
@@ -2793,7 +2795,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>240</v>
@@ -2811,7 +2813,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2819,7 +2821,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2827,7 +2829,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2835,7 +2837,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>240</v>
@@ -2853,7 +2855,7 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>240</v>
@@ -2871,7 +2873,7 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2879,7 +2881,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2887,7 +2889,7 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2895,7 +2897,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>240</v>
@@ -2913,7 +2915,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>240</v>
@@ -2931,7 +2933,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2939,7 +2941,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2947,7 +2949,7 @@
         <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2955,7 +2957,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2963,7 +2965,7 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2971,7 +2973,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2979,7 +2981,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2987,7 +2989,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>240</v>
@@ -3004,7 +3006,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E21" s="22"/>
     </row>
@@ -3013,7 +3015,7 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -3025,7 +3027,7 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E23" s="22"/>
       <c r="G23" s="21"/>
@@ -3036,7 +3038,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>240</v>
@@ -3055,7 +3057,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>240</v>
@@ -3073,7 +3075,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3081,7 +3083,7 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3089,7 +3091,7 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>240</v>
@@ -3106,7 +3108,7 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3114,7 +3116,7 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3122,7 +3124,7 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>240</v>
@@ -3139,7 +3141,7 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3147,7 +3149,7 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3155,7 +3157,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E34" s="22"/>
       <c r="J34" s="21"/>
@@ -3166,7 +3168,7 @@
         <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>244</v>
@@ -3179,10 +3181,10 @@
         <v>243</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="I35" s="20" t="s">
         <v>242</v>
@@ -3191,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3199,7 +3201,7 @@
         <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>244</v>
@@ -3212,7 +3214,7 @@
         <v>243</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="20" t="s">
@@ -3228,7 +3230,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E37" s="22"/>
       <c r="K37" s="22"/>
@@ -3238,7 +3240,7 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>244</v>
@@ -3247,16 +3249,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>243</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>242</v>
@@ -3271,7 +3273,7 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>244</v>
@@ -3280,16 +3282,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>243</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>242</v>
@@ -3304,7 +3306,7 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D40" s="21"/>
       <c r="G40" s="21"/>
@@ -3316,7 +3318,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>0</v>
@@ -3334,7 +3336,7 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>0</v>
@@ -3352,7 +3354,7 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D43" s="21"/>
       <c r="G43" s="21"/>
@@ -3364,7 +3366,7 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D44" s="21"/>
       <c r="J44" s="21"/>
@@ -3375,7 +3377,7 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D47" s="21"/>
       <c r="G47" s="21"/>
@@ -3423,23 +3425,23 @@
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="G48" s="21"/>
       <c r="I48" s="20" t="s">
-        <v>246</v>
+        <v>424</v>
       </c>
       <c r="J48" s="21"/>
     </row>
@@ -3448,23 +3450,23 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>347</v>
+        <v>422</v>
       </c>
       <c r="G49" s="21"/>
       <c r="I49" s="20" t="s">
-        <v>348</v>
+        <v>429</v>
       </c>
       <c r="J49" s="21"/>
     </row>
@@ -3473,34 +3475,34 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>245</v>
+        <v>423</v>
       </c>
       <c r="G50" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="I50" s="52" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="J50" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3508,34 +3510,34 @@
         <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C51" s="52" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>246</v>
+        <v>424</v>
       </c>
       <c r="G51" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="I51" s="52" t="s">
-        <v>249</v>
+        <v>427</v>
       </c>
       <c r="J51" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,34 +3545,34 @@
         <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="F52" s="52" t="s">
-        <v>247</v>
+        <v>425</v>
       </c>
       <c r="G52" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="I52" s="52" t="s">
-        <v>250</v>
+        <v>428</v>
       </c>
       <c r="J52" s="53" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3578,31 +3580,31 @@
         <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>242</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H53" s="22" t="s">
         <v>242</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K53" s="22" t="s">
         <v>242</v>
@@ -3613,31 +3615,31 @@
         <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E54" s="22" t="s">
         <v>242</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>242</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K54" s="22" t="s">
         <v>242</v>
@@ -3648,31 +3650,31 @@
         <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E55" s="22" t="s">
         <v>242</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H55" s="22" t="s">
         <v>242</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K55" s="22" t="s">
         <v>242</v>
@@ -3683,25 +3685,25 @@
         <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="J56" s="40" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,25 +3711,25 @@
         <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,25 +3737,25 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3761,7 +3763,7 @@
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3769,7 +3771,7 @@
         <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3777,7 +3779,7 @@
         <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3785,7 +3787,7 @@
         <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3793,7 +3795,7 @@
         <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3801,7 +3803,7 @@
         <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3809,7 +3811,7 @@
         <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3817,7 +3819,7 @@
         <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3825,7 +3827,7 @@
         <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3833,7 +3835,7 @@
         <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3841,7 +3843,7 @@
         <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3849,7 +3851,7 @@
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3857,7 +3859,7 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3865,7 +3867,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -3873,7 +3875,7 @@
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,7 +3883,7 @@
         <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3889,7 +3891,7 @@
         <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3897,7 +3899,7 @@
         <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3905,7 +3907,7 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -3913,7 +3915,7 @@
         <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D78" s="21"/>
       <c r="J78" s="21"/>
@@ -3923,7 +3925,7 @@
         <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D79" s="21"/>
       <c r="J79" s="21"/>
@@ -3933,26 +3935,26 @@
         <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I80" s="20" t="s">
         <v>235</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="22" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3960,26 +3962,26 @@
         <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I81" s="20" t="s">
         <v>235</v>
       </c>
       <c r="J81" s="21"/>
       <c r="K81" s="22" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3987,7 +3989,7 @@
         <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D82" s="21"/>
       <c r="J82" s="21"/>
@@ -3997,7 +3999,7 @@
         <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D83" s="21"/>
       <c r="J83" s="21"/>
@@ -4007,7 +4009,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D84" s="21"/>
     </row>
@@ -4016,7 +4018,7 @@
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D85" s="21"/>
     </row>
@@ -4025,7 +4027,7 @@
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>9</v>
@@ -4045,7 +4047,7 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>9</v>
@@ -4064,7 +4066,7 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D88" s="21"/>
     </row>
@@ -4073,7 +4075,7 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D89" s="21"/>
     </row>
@@ -4082,7 +4084,7 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D90" s="21"/>
     </row>
@@ -4091,7 +4093,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D91" s="21"/>
     </row>
@@ -4100,7 +4102,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D92" s="21"/>
     </row>
@@ -4109,7 +4111,7 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D93" s="21"/>
     </row>
@@ -7471,88 +7473,88 @@
     <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="H1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="I1" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="L1" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="M1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="P1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="Q1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="T1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="U1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="X1" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="Y1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="AB1" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="AC1" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7560,7 +7562,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="4">
         <v>0.85</v>
@@ -7657,7 +7659,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -7752,7 +7754,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -7847,7 +7849,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -7942,7 +7944,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C6" s="4">
         <v>0.85</v>
@@ -8039,7 +8041,7 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C7" s="4">
         <v>0.85</v>
@@ -8136,7 +8138,7 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -8222,7 +8224,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -8308,7 +8310,7 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -8394,7 +8396,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C11" s="4">
         <v>0.85</v>
@@ -8482,7 +8484,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C12" s="4">
         <v>0.85</v>
@@ -8570,7 +8572,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -8662,7 +8664,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -8754,7 +8756,7 @@
         <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -8846,7 +8848,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -8938,7 +8940,7 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -9030,7 +9032,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
@@ -9119,7 +9121,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
@@ -9208,7 +9210,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="4">
         <v>0.85</v>
@@ -9299,7 +9301,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
@@ -9385,7 +9387,7 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
@@ -9471,7 +9473,7 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -9557,7 +9559,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C24" s="4">
         <v>0.85</v>
@@ -9645,7 +9647,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C25" s="4">
         <v>0.85</v>
@@ -9733,7 +9735,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -9825,7 +9827,7 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
@@ -9917,7 +9919,7 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C28" s="4">
         <v>0.85</v>
@@ -10011,7 +10013,7 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
@@ -10106,7 +10108,7 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -10201,7 +10203,7 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C31" s="4">
         <v>0.85</v>
@@ -10298,7 +10300,7 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -10387,7 +10389,7 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -10476,7 +10478,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -10577,7 +10579,7 @@
         <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C35" s="4">
         <v>0.9</v>
@@ -10682,7 +10684,7 @@
         <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C36" s="4">
         <v>0.9</v>
@@ -10787,7 +10789,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -10879,7 +10881,7 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C38" s="4">
         <v>0.9</v>
@@ -10975,7 +10977,7 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C39" s="4">
         <v>0.9</v>
@@ -11071,7 +11073,7 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -11169,7 +11171,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5">
@@ -11269,7 +11271,7 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5">
@@ -11369,7 +11371,7 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -11467,7 +11469,7 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -11562,7 +11564,7 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5">
@@ -11659,7 +11661,7 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5">
@@ -11756,7 +11758,7 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -11851,7 +11853,7 @@
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C48" s="4">
         <v>1.25</v>
@@ -11955,7 +11957,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C49" s="4">
         <v>1.25</v>
@@ -12059,7 +12061,7 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C50" s="4">
         <v>1.5</v>
@@ -12163,7 +12165,7 @@
         <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C51" s="4">
         <v>1.5</v>
@@ -12267,7 +12269,7 @@
         <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C52" s="4">
         <v>1.5</v>
@@ -12371,7 +12373,7 @@
         <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -12475,7 +12477,7 @@
         <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -12579,7 +12581,7 @@
         <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
@@ -12683,7 +12685,7 @@
         <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5">
@@ -12779,7 +12781,7 @@
         <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5">
@@ -12875,7 +12877,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5">
@@ -12971,7 +12973,7 @@
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -13060,7 +13062,7 @@
         <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -13149,7 +13151,7 @@
         <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -13238,7 +13240,7 @@
         <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -13333,7 +13335,7 @@
         <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -13428,7 +13430,7 @@
         <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -13523,7 +13525,7 @@
         <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -13606,7 +13608,7 @@
         <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -13689,7 +13691,7 @@
         <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -13772,7 +13774,7 @@
         <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -13873,7 +13875,7 @@
         <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -13974,7 +13976,7 @@
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -14075,7 +14077,7 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -14161,7 +14163,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -14247,7 +14249,7 @@
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -14333,7 +14335,7 @@
         <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -14425,7 +14427,7 @@
         <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -14514,7 +14516,7 @@
         <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -14600,7 +14602,7 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -14683,7 +14685,7 @@
         <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
@@ -14769,7 +14771,7 @@
         <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -14855,7 +14857,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C80" s="4">
         <v>1.25</v>
@@ -14961,7 +14963,7 @@
         <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C81" s="4">
         <v>1.25</v>
@@ -15067,7 +15069,7 @@
         <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -15156,7 +15158,7 @@
         <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -15245,7 +15247,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -15334,7 +15336,7 @@
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -15423,7 +15425,7 @@
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5">
@@ -15526,7 +15528,7 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5">
@@ -15629,7 +15631,7 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -15712,7 +15714,7 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -15795,7 +15797,7 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -15878,7 +15880,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -15964,7 +15966,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -16050,7 +16052,7 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -18755,88 +18757,88 @@
     <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="H1" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="I1" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="L1" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="M1" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="P1" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="Q1" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="T1" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="U1" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="X1" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="Y1" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="AB1" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="AC1" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -18844,7 +18846,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="4">
         <v>0.55000000000000004</v>
@@ -18941,7 +18943,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="8"/>
@@ -19036,7 +19038,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="8"/>
@@ -19131,7 +19133,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="8"/>
@@ -19226,7 +19228,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C6" s="4">
         <v>0.55000000000000004</v>
@@ -19323,7 +19325,7 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C7" s="4">
         <v>0.55000000000000004</v>
@@ -19420,7 +19422,7 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="8"/>
@@ -19506,7 +19508,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="8"/>
@@ -19592,7 +19594,7 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="8"/>
@@ -19678,7 +19680,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C11" s="4">
         <v>0.55000000000000004</v>
@@ -19766,7 +19768,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C12" s="4">
         <v>0.55000000000000004</v>
@@ -19854,7 +19856,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
@@ -19946,7 +19948,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
@@ -20038,7 +20040,7 @@
         <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="8"/>
@@ -20130,7 +20132,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
@@ -20222,7 +20224,7 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
@@ -20314,7 +20316,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="8"/>
@@ -20403,7 +20405,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="8"/>
@@ -20492,7 +20494,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="4">
         <v>0.55000000000000004</v>
@@ -20583,7 +20585,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
@@ -20669,7 +20671,7 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
@@ -20755,7 +20757,7 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
@@ -20841,7 +20843,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C24" s="4">
         <v>0.55000000000000004</v>
@@ -20929,7 +20931,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C25" s="4">
         <v>0.55000000000000004</v>
@@ -21017,7 +21019,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
@@ -21109,7 +21111,7 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8"/>
@@ -21201,7 +21203,7 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C28" s="4">
         <v>0.55000000000000004</v>
@@ -21295,7 +21297,7 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="8"/>
@@ -21390,7 +21392,7 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
@@ -21485,7 +21487,7 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C31" s="4">
         <v>0.55000000000000004</v>
@@ -21582,7 +21584,7 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
@@ -21671,7 +21673,7 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
@@ -21760,7 +21762,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
@@ -21861,7 +21863,7 @@
         <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C35" s="4">
         <v>0.7</v>
@@ -21968,7 +21970,7 @@
         <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C36" s="4">
         <v>0.7</v>
@@ -22073,7 +22075,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8"/>
@@ -22165,7 +22167,7 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C38" s="4">
         <v>0.7</v>
@@ -22263,7 +22265,7 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C39" s="4">
         <v>0.7</v>
@@ -22361,7 +22363,7 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="8"/>
@@ -22459,7 +22461,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="8">
@@ -22559,7 +22561,7 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="8">
@@ -22659,7 +22661,7 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="8"/>
@@ -22757,7 +22759,7 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="8"/>
@@ -22852,7 +22854,7 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="8">
@@ -22949,7 +22951,7 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8">
@@ -23046,7 +23048,7 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8"/>
@@ -23141,7 +23143,7 @@
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C48" s="4">
         <v>1.5</v>
@@ -23245,7 +23247,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C49" s="4">
         <v>1.5</v>
@@ -23349,7 +23351,7 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C50" s="4">
         <v>2</v>
@@ -23453,7 +23455,7 @@
         <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C51" s="4">
         <v>2</v>
@@ -23557,7 +23559,7 @@
         <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -23661,7 +23663,7 @@
         <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C53" s="4">
         <v>2.5</v>
@@ -23765,7 +23767,7 @@
         <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C54" s="4">
         <v>2.5</v>
@@ -23869,7 +23871,7 @@
         <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C55" s="4">
         <v>2.5</v>
@@ -23973,7 +23975,7 @@
         <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8">
@@ -24069,7 +24071,7 @@
         <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8">
@@ -24165,7 +24167,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8">
@@ -24261,7 +24263,7 @@
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8"/>
@@ -24350,7 +24352,7 @@
         <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8"/>
@@ -24439,7 +24441,7 @@
         <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="8"/>
@@ -24528,7 +24530,7 @@
         <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8"/>
@@ -24623,7 +24625,7 @@
         <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="8"/>
@@ -24718,7 +24720,7 @@
         <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="8"/>
@@ -24813,7 +24815,7 @@
         <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="8"/>
@@ -24896,7 +24898,7 @@
         <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8"/>
@@ -24979,7 +24981,7 @@
         <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="8"/>
@@ -25062,7 +25064,7 @@
         <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="8"/>
@@ -25163,7 +25165,7 @@
         <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="8"/>
@@ -25264,7 +25266,7 @@
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="8"/>
@@ -25365,7 +25367,7 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="8"/>
@@ -25451,7 +25453,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="8"/>
@@ -25537,7 +25539,7 @@
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="8"/>
@@ -25623,7 +25625,7 @@
         <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8"/>
@@ -25715,7 +25717,7 @@
         <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="8"/>
@@ -25804,7 +25806,7 @@
         <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="8"/>
@@ -25890,7 +25892,7 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="8"/>
@@ -25973,7 +25975,7 @@
         <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="8"/>
@@ -26059,7 +26061,7 @@
         <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="8"/>
@@ -26145,7 +26147,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C80" s="4">
         <v>1.5</v>
@@ -26250,7 +26252,7 @@
         <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C81" s="4">
         <v>1.5</v>
@@ -26355,7 +26357,7 @@
         <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="8"/>
@@ -26444,7 +26446,7 @@
         <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="8"/>
@@ -26533,7 +26535,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="8"/>
@@ -26622,7 +26624,7 @@
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="8"/>
@@ -26711,7 +26713,7 @@
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="8">
@@ -26814,7 +26816,7 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8">
@@ -26917,7 +26919,7 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="8"/>
@@ -27000,7 +27002,7 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8"/>
@@ -27083,7 +27085,7 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="8"/>
@@ -27166,7 +27168,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="8"/>
@@ -27252,7 +27254,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="8"/>
@@ -27338,7 +27340,7 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="8"/>
@@ -30030,88 +30032,88 @@
     <row r="1" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="H1" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="I1" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="L1" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="M1" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="P1" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="Q1" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="T1" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="U1" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="X1" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="Y1" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="Z1" t="s">
         <v>26</v>
       </c>
       <c r="AA1" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="AB1" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="AC1" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -30119,7 +30121,7 @@
         <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C2" s="36">
         <v>0.25</v>
@@ -30216,7 +30218,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
@@ -30311,7 +30313,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
@@ -30406,7 +30408,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="37"/>
@@ -30501,7 +30503,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C6" s="36">
         <v>0.25</v>
@@ -30598,7 +30600,7 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C7" s="36">
         <v>0.25</v>
@@ -30695,7 +30697,7 @@
         <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
@@ -30781,7 +30783,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -30867,7 +30869,7 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -30953,7 +30955,7 @@
         <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C11" s="36">
         <v>0.25</v>
@@ -31041,7 +31043,7 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C12" s="36">
         <v>0.25</v>
@@ -31129,7 +31131,7 @@
         <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
@@ -31221,7 +31223,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
@@ -31313,7 +31315,7 @@
         <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
@@ -31405,7 +31407,7 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
@@ -31497,7 +31499,7 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
@@ -31589,7 +31591,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
@@ -31678,7 +31680,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
@@ -31767,7 +31769,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C20" s="36">
         <v>0.25</v>
@@ -31858,7 +31860,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
@@ -31944,7 +31946,7 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
@@ -32030,7 +32032,7 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
@@ -32116,7 +32118,7 @@
         <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C24" s="36">
         <v>0.25</v>
@@ -32204,7 +32206,7 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C25" s="36">
         <v>0.25</v>
@@ -32292,7 +32294,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
@@ -32384,7 +32386,7 @@
         <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="37"/>
@@ -32476,7 +32478,7 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C28" s="36">
         <v>0.25</v>
@@ -32570,7 +32572,7 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
@@ -32665,7 +32667,7 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="37"/>
@@ -32760,7 +32762,7 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C31" s="36">
         <v>0.25</v>
@@ -32857,7 +32859,7 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="37"/>
@@ -32946,7 +32948,7 @@
         <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
@@ -33035,7 +33037,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="39"/>
@@ -33136,7 +33138,7 @@
         <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C35" s="36">
         <v>0.5</v>
@@ -33243,7 +33245,7 @@
         <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C36" s="36">
         <v>0.5</v>
@@ -33348,7 +33350,7 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="39"/>
@@ -33440,7 +33442,7 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C38" s="36">
         <v>0.5</v>
@@ -33536,7 +33538,7 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C39" s="36">
         <v>0.5</v>
@@ -33632,7 +33634,7 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="39"/>
@@ -33730,7 +33732,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="39">
@@ -33830,7 +33832,7 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="39">
@@ -33930,7 +33932,7 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="39"/>
@@ -34028,7 +34030,7 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="39"/>
@@ -34123,7 +34125,7 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="39">
@@ -34220,7 +34222,7 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="39">
@@ -34317,7 +34319,7 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="39"/>
@@ -34412,7 +34414,7 @@
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C48" s="36">
         <v>2</v>
@@ -34512,7 +34514,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C49" s="36">
         <v>2</v>
@@ -34612,7 +34614,7 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C50" s="36">
         <v>3</v>
@@ -34716,7 +34718,7 @@
         <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C51" s="36">
         <v>3</v>
@@ -34820,7 +34822,7 @@
         <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C52" s="36">
         <v>3</v>
@@ -34924,7 +34926,7 @@
         <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C53" s="36">
         <v>4</v>
@@ -35028,7 +35030,7 @@
         <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C54" s="36">
         <v>4</v>
@@ -35132,7 +35134,7 @@
         <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C55" s="36">
         <v>4</v>
@@ -35236,7 +35238,7 @@
         <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="37">
@@ -35332,7 +35334,7 @@
         <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C57" s="36"/>
       <c r="D57" s="37">
@@ -35428,7 +35430,7 @@
         <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="37">
@@ -35524,7 +35526,7 @@
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="37"/>
@@ -35613,7 +35615,7 @@
         <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="37"/>
@@ -35702,7 +35704,7 @@
         <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
@@ -35791,7 +35793,7 @@
         <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="37"/>
@@ -35886,7 +35888,7 @@
         <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="37"/>
@@ -35981,7 +35983,7 @@
         <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
@@ -36076,7 +36078,7 @@
         <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
@@ -36159,7 +36161,7 @@
         <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C66" s="36"/>
       <c r="D66" s="37"/>
@@ -36242,7 +36244,7 @@
         <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C67" s="36"/>
       <c r="D67" s="37"/>
@@ -36325,7 +36327,7 @@
         <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C68" s="36"/>
       <c r="D68" s="37"/>
@@ -36426,7 +36428,7 @@
         <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C69" s="36"/>
       <c r="D69" s="37"/>
@@ -36527,7 +36529,7 @@
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
@@ -36628,7 +36630,7 @@
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C71" s="36"/>
       <c r="D71" s="37"/>
@@ -36714,7 +36716,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C72" s="36"/>
       <c r="D72" s="37"/>
@@ -36800,7 +36802,7 @@
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
@@ -36886,7 +36888,7 @@
         <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
@@ -36978,7 +36980,7 @@
         <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
@@ -37067,7 +37069,7 @@
         <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
@@ -37153,7 +37155,7 @@
         <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C77" s="36"/>
       <c r="D77" s="37"/>
@@ -37236,7 +37238,7 @@
         <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C78" s="36"/>
       <c r="D78" s="39"/>
@@ -37322,7 +37324,7 @@
         <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C79" s="36"/>
       <c r="D79" s="39"/>
@@ -37408,7 +37410,7 @@
         <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C80" s="36">
         <v>2</v>
@@ -37513,7 +37515,7 @@
         <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C81" s="36">
         <v>2</v>
@@ -37618,7 +37620,7 @@
         <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C82" s="36"/>
       <c r="D82" s="39"/>
@@ -37707,7 +37709,7 @@
         <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C83" s="36"/>
       <c r="D83" s="39"/>
@@ -37796,7 +37798,7 @@
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C84" s="36"/>
       <c r="D84" s="37"/>
@@ -37885,7 +37887,7 @@
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
@@ -37974,7 +37976,7 @@
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C86" s="36"/>
       <c r="D86" s="37">
@@ -38077,7 +38079,7 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C87" s="36"/>
       <c r="D87" s="37">
@@ -38180,7 +38182,7 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C88" s="36"/>
       <c r="D88" s="37"/>
@@ -38263,7 +38265,7 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C89" s="36"/>
       <c r="D89" s="37"/>
@@ -38346,7 +38348,7 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C90" s="36"/>
       <c r="D90" s="37"/>
@@ -38429,7 +38431,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C91" s="36"/>
       <c r="D91" s="37"/>
@@ -38515,7 +38517,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C92" s="36"/>
       <c r="D92" s="37"/>
@@ -38601,7 +38603,7 @@
         <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C93" s="36"/>
       <c r="D93" s="37"/>

--- a/specifications/4_Wind/ScriptRules_Wind.xlsx
+++ b/specifications/4_Wind/ScriptRules_Wind.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2738,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7446,8 +7446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A1048576"/>
+    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="16">
-        <f t="shared" ref="M3:M47" si="3">L3</f>
+        <f t="shared" ref="M3:M66" si="3">L3</f>
         <v>0</v>
       </c>
       <c r="O3" s="12">
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" ref="Q3:Q47" si="5">P3</f>
+        <f t="shared" ref="Q3:Q66" si="5">P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="11">
@@ -7715,7 +7715,7 @@
         <v>2.9</v>
       </c>
       <c r="U3" s="16">
-        <f t="shared" ref="U3:U47" si="7">T3</f>
+        <f t="shared" ref="U3:U66" si="7">T3</f>
         <v>2.9</v>
       </c>
       <c r="V3" s="11">
@@ -7730,7 +7730,7 @@
         <v>14</v>
       </c>
       <c r="Y3" s="16">
-        <f t="shared" ref="Y3:Y47" si="9">X3</f>
+        <f t="shared" ref="Y3:Y66" si="9">X3</f>
         <v>14</v>
       </c>
       <c r="Z3" s="11">
@@ -7745,7 +7745,7 @@
         <v>12</v>
       </c>
       <c r="AC3" s="16">
-        <f t="shared" ref="AC3:AC47" si="11">AB3</f>
+        <f t="shared" ref="AC3:AC66" si="11">AB3</f>
         <v>12</v>
       </c>
     </row>
@@ -11286,7 +11286,7 @@
         <v>0.7</v>
       </c>
       <c r="H42" s="15">
-        <f>G42*$D42</f>
+        <f>MIN(100,G42*$D42)</f>
         <v>0.77</v>
       </c>
       <c r="I42" s="16">
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="15">
-        <f>K42*$D42</f>
+        <f>MIN(100,K42*$D42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="16">
@@ -11313,7 +11313,7 @@
         <v>90</v>
       </c>
       <c r="P42" s="15">
-        <f>O42*$D42</f>
+        <f>MIN(100,O42*$D42)</f>
         <v>99.000000000000014</v>
       </c>
       <c r="Q42" s="16">
@@ -11328,7 +11328,7 @@
         <v>2</v>
       </c>
       <c r="T42" s="15">
-        <f>S42*$D42</f>
+        <f>MIN(100,S42*$D42)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="U42" s="16">
@@ -11343,7 +11343,7 @@
         <v>30</v>
       </c>
       <c r="X42" s="15">
-        <f>W42*$D42</f>
+        <f>MIN(100,W42*$D42)</f>
         <v>33</v>
       </c>
       <c r="Y42" s="16">
@@ -11358,7 +11358,7 @@
         <v>20</v>
       </c>
       <c r="AB42" s="15">
-        <f>AA42*$D42</f>
+        <f>MIN(100,AA42*$D42)</f>
         <v>22</v>
       </c>
       <c r="AC42" s="16">
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" ref="L47" si="25">K47</f>
+        <f t="shared" ref="L47:L93" si="25">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="16">
@@ -11798,7 +11798,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="15">
-        <f t="shared" ref="P47" si="26">O47</f>
+        <f t="shared" ref="P47:P93" si="26">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="16">
@@ -11813,7 +11813,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" ref="T47" si="27">S47</f>
+        <f t="shared" ref="T47:T93" si="27">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="16">
@@ -11825,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="15">
-        <f t="shared" ref="X47" si="28">W47</f>
+        <f t="shared" ref="X47:X93" si="28">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="16">
@@ -11840,7 +11840,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="15">
-        <f t="shared" ref="AB47" si="29">AA47</f>
+        <f t="shared" ref="AB47:AB93" si="29">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="16">
@@ -11976,7 +11976,7 @@
         <v>87.5</v>
       </c>
       <c r="H49" s="15">
-        <f>MIN(100,G49*$D49)</f>
+        <f t="shared" ref="H49:H55" si="36">$D49*G49</f>
         <v>65.625</v>
       </c>
       <c r="I49" s="42">
@@ -11991,7 +11991,7 @@
         <v>62.5</v>
       </c>
       <c r="L49" s="15">
-        <f>MIN(100,K49*$D49)</f>
+        <f t="shared" ref="L49:L55" si="37">$D49*K49</f>
         <v>46.875</v>
       </c>
       <c r="M49" s="42">
@@ -12003,7 +12003,7 @@
         <v>25</v>
       </c>
       <c r="P49" s="15">
-        <f>MIN(100,O49*$D49)</f>
+        <f t="shared" ref="P49:P55" si="38">$D49*O49</f>
         <v>18.75</v>
       </c>
       <c r="Q49" s="42">
@@ -12018,7 +12018,7 @@
         <v>37.5</v>
       </c>
       <c r="T49" s="15">
-        <f>MIN(100,S49*$D49)</f>
+        <f t="shared" ref="T49:T55" si="39">$D49*S49</f>
         <v>28.125</v>
       </c>
       <c r="U49" s="42">
@@ -12033,7 +12033,7 @@
         <v>50</v>
       </c>
       <c r="X49" s="15">
-        <f>MIN(100,W49*$D49)</f>
+        <f t="shared" ref="X49:X55" si="40">$D49*W49</f>
         <v>37.5</v>
       </c>
       <c r="Y49" s="42">
@@ -12048,7 +12048,7 @@
         <v>25</v>
       </c>
       <c r="AB49" s="15">
-        <f>MIN(100,AA49*$D49)</f>
+        <f t="shared" ref="AB49:AB55" si="41">$D49*AA49</f>
         <v>18.75</v>
       </c>
       <c r="AC49" s="42">
@@ -12080,7 +12080,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" ref="H50:H55" si="36">$D50*G50</f>
+        <f t="shared" si="36"/>
         <v>2.25</v>
       </c>
       <c r="I50" s="42">
@@ -12095,7 +12095,7 @@
         <v>1.5</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" ref="L50:L55" si="37">$D50*K50</f>
+        <f t="shared" si="37"/>
         <v>1.125</v>
       </c>
       <c r="M50" s="42">
@@ -12107,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" ref="P50:P55" si="38">$D50*O50</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q50" s="42">
@@ -12122,7 +12122,7 @@
         <v>0.75</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" ref="T50:T55" si="39">$D50*S50</f>
+        <f t="shared" si="39"/>
         <v>0.5625</v>
       </c>
       <c r="U50" s="42">
@@ -12137,7 +12137,7 @@
         <v>1.5</v>
       </c>
       <c r="X50" s="15">
-        <f t="shared" ref="X50:X55" si="40">$D50*W50</f>
+        <f t="shared" si="40"/>
         <v>1.125</v>
       </c>
       <c r="Y50" s="42">
@@ -12152,7 +12152,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AB50" s="15">
-        <f t="shared" ref="AB50:AB55" si="41">$D50*AA50</f>
+        <f t="shared" si="41"/>
         <v>0.33749999999999997</v>
       </c>
       <c r="AC50" s="42">
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f t="shared" ref="M59:M79" si="48">L59</f>
+        <f t="shared" ref="M59:M93" si="48">L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="12">
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" ref="Q59:Q79" si="49">P59</f>
+        <f t="shared" ref="Q59:Q93" si="49">P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="11">
@@ -13029,7 +13029,7 @@
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" ref="U59:U79" si="50">T59</f>
+        <f t="shared" ref="U59:U93" si="50">T59</f>
         <v>3.5</v>
       </c>
       <c r="W59" s="12">
@@ -13041,7 +13041,7 @@
         <v>3.5</v>
       </c>
       <c r="Y59" s="16">
-        <f t="shared" ref="Y59:Y79" si="51">X59</f>
+        <f t="shared" ref="Y59:Y93" si="51">X59</f>
         <v>3.5</v>
       </c>
       <c r="AA59" s="12">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f t="shared" ref="AC59:AC79" si="52">AB59</f>
+        <f t="shared" ref="AC59:AC93" si="52">AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -13176,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" ref="L61:L85" si="53">K61</f>
+        <f t="shared" ref="L61:L93" si="53">K61</f>
         <v>0</v>
       </c>
       <c r="M61" s="16">
@@ -13188,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" ref="P61:P85" si="54">O61</f>
+        <f t="shared" ref="P61:P93" si="54">O61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
@@ -13203,7 +13203,7 @@
         <v>50</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" ref="T61:T85" si="55">S61</f>
+        <f t="shared" ref="T61:T93" si="55">S61</f>
         <v>50</v>
       </c>
       <c r="U61" s="16">
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" ref="X61:X85" si="56">W61</f>
+        <f t="shared" ref="X61:X93" si="56">W61</f>
         <v>0</v>
       </c>
       <c r="Y61" s="16">
@@ -13227,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" ref="AB61:AB85" si="57">AA61</f>
+        <f t="shared" ref="AB61:AB93" si="57">AA61</f>
         <v>0</v>
       </c>
       <c r="AC61" s="16">
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" ref="K82:K85" si="60">J82</f>
+        <f t="shared" ref="K82:K93" si="60">J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="15">
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" ref="O82:O85" si="62">N82</f>
+        <f t="shared" ref="O82:O93" si="62">N82</f>
         <v>0</v>
       </c>
       <c r="P82" s="15">
@@ -15114,7 +15114,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" ref="S82:S85" si="64">R82</f>
+        <f t="shared" ref="S82:S93" si="64">R82</f>
         <v>2.5</v>
       </c>
       <c r="T82" s="15">
@@ -15129,7 +15129,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" ref="W82:W85" si="66">V82</f>
+        <f t="shared" ref="W82:W93" si="66">V82</f>
         <v>1</v>
       </c>
       <c r="X82" s="15">
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" ref="AA82:AA85" si="68">Z82</f>
+        <f t="shared" ref="AA82:AA93" si="68">Z82</f>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
@@ -18718,8 +18718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:A1048576"/>
+    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19067,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="18">
-        <f t="shared" ref="M4:M34" si="3">L4</f>
+        <f t="shared" ref="M4:M67" si="3">L4</f>
         <v>0</v>
       </c>
       <c r="O4" s="45">
@@ -19079,7 +19079,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="18">
-        <f t="shared" ref="Q4:Q34" si="5">P4</f>
+        <f t="shared" ref="Q4:Q67" si="5">P4</f>
         <v>0</v>
       </c>
       <c r="R4" s="11">
@@ -19094,7 +19094,7 @@
         <v>4</v>
       </c>
       <c r="U4" s="18">
-        <f t="shared" ref="U4:U34" si="7">T4</f>
+        <f t="shared" ref="U4:U67" si="7">T4</f>
         <v>4</v>
       </c>
       <c r="V4" s="11">
@@ -19109,7 +19109,7 @@
         <v>20</v>
       </c>
       <c r="Y4" s="18">
-        <f t="shared" ref="Y4:Y34" si="9">X4</f>
+        <f t="shared" ref="Y4:Y67" si="9">X4</f>
         <v>20</v>
       </c>
       <c r="Z4" s="11">
@@ -19124,7 +19124,7 @@
         <v>55</v>
       </c>
       <c r="AC4" s="18">
-        <f t="shared" ref="AC4:AC34" si="11">AB4</f>
+        <f t="shared" ref="AC4:AC67" si="11">AB4</f>
         <v>55</v>
       </c>
     </row>
@@ -22006,7 +22006,7 @@
         <v>77.349999999999994</v>
       </c>
       <c r="M36" s="18">
-        <f t="shared" ref="M36:M37" si="18">L36</f>
+        <f t="shared" ref="M36:M93" si="18">L36</f>
         <v>77.349999999999994</v>
       </c>
       <c r="N36" s="11">
@@ -22021,7 +22021,7 @@
         <v>91</v>
       </c>
       <c r="Q36" s="18">
-        <f t="shared" ref="Q36:Q37" si="19">P36</f>
+        <f t="shared" ref="Q36:Q93" si="19">P36</f>
         <v>91</v>
       </c>
       <c r="R36" s="11">
@@ -22036,7 +22036,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="U36" s="18">
-        <f t="shared" ref="U36:U37" si="20">T36</f>
+        <f t="shared" ref="U36:U93" si="20">T36</f>
         <v>81.899999999999991</v>
       </c>
       <c r="V36" s="11">
@@ -22051,7 +22051,7 @@
         <v>77.349999999999994</v>
       </c>
       <c r="Y36" s="18">
-        <f t="shared" ref="Y36:Y37" si="21">X36</f>
+        <f t="shared" ref="Y36:Y93" si="21">X36</f>
         <v>77.349999999999994</v>
       </c>
       <c r="Z36" s="11">
@@ -22066,7 +22066,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="AC36" s="18">
-        <f t="shared" ref="AC36:AC37" si="22">AB36</f>
+        <f t="shared" ref="AC36:AC93" si="22">AB36</f>
         <v>81.899999999999991</v>
       </c>
     </row>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="50">
-        <f t="shared" ref="M40:M47" si="23">L40</f>
+        <f t="shared" ref="M40:M93" si="23">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="11">
@@ -22407,7 +22407,7 @@
         <v>2</v>
       </c>
       <c r="Q40" s="50">
-        <f t="shared" ref="Q40:Q47" si="24">P40</f>
+        <f t="shared" ref="Q40:Q93" si="24">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="11">
@@ -22422,7 +22422,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="50">
-        <f t="shared" ref="U40:U47" si="25">T40</f>
+        <f t="shared" ref="U40:U93" si="25">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="11">
@@ -22437,7 +22437,7 @@
         <v>2.5</v>
       </c>
       <c r="Y40" s="50">
-        <f t="shared" ref="Y40:Y47" si="26">X40</f>
+        <f t="shared" ref="Y40:Y93" si="26">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
@@ -22452,7 +22452,7 @@
         <v>2</v>
       </c>
       <c r="AC40" s="50">
-        <f t="shared" ref="AC40:AC47" si="27">AB40</f>
+        <f t="shared" ref="AC40:AC93" si="27">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -23073,7 +23073,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="46">
-        <f t="shared" ref="L47" si="35">K47</f>
+        <f t="shared" ref="L47:L93" si="35">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="18">
@@ -23088,7 +23088,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="46">
-        <f t="shared" ref="P47" si="36">O47</f>
+        <f t="shared" ref="P47:P93" si="36">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="18">
@@ -23103,7 +23103,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="46">
-        <f t="shared" ref="T47" si="37">S47</f>
+        <f t="shared" ref="T47:T93" si="37">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="18">
@@ -23115,7 +23115,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="46">
-        <f t="shared" ref="X47" si="38">W47</f>
+        <f t="shared" ref="X47:X93" si="38">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="18">
@@ -23130,7 +23130,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="46">
-        <f t="shared" ref="AB47" si="39">AA47</f>
+        <f t="shared" ref="AB47:AB93" si="39">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="18">
@@ -24288,11 +24288,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="33">
-        <f t="shared" ref="L59:L85" si="58">K59</f>
+        <f t="shared" ref="L59:L93" si="58">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="18">
-        <f t="shared" ref="M59:M79" si="59">L59</f>
+        <f t="shared" ref="M59:M93" si="59">L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="45">
@@ -24300,11 +24300,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="33">
-        <f t="shared" ref="P59:P85" si="60">O59</f>
+        <f t="shared" ref="P59:P93" si="60">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="18">
-        <f t="shared" ref="Q59:Q79" si="61">P59</f>
+        <f t="shared" ref="Q59:Q93" si="61">P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="11">
@@ -24315,11 +24315,11 @@
         <v>3.5</v>
       </c>
       <c r="T59" s="33">
-        <f t="shared" ref="T59:T85" si="62">S59</f>
+        <f t="shared" ref="T59:T93" si="62">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="18">
-        <f t="shared" ref="U59:U79" si="63">T59</f>
+        <f t="shared" ref="U59:U93" si="63">T59</f>
         <v>3.5</v>
       </c>
       <c r="W59" s="45">
@@ -24327,11 +24327,11 @@
         <v>0</v>
       </c>
       <c r="X59" s="33">
-        <f t="shared" ref="X59:X85" si="64">W59</f>
+        <f t="shared" ref="X59:X93" si="64">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="18">
-        <f t="shared" ref="Y59:Y79" si="65">X59</f>
+        <f t="shared" ref="Y59:Y93" si="65">X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="45">
@@ -24339,11 +24339,11 @@
         <v>0</v>
       </c>
       <c r="AB59" s="33">
-        <f t="shared" ref="AB59:AB85" si="66">AA59</f>
+        <f t="shared" ref="AB59:AB93" si="66">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="18">
-        <f t="shared" ref="AC59:AC79" si="67">AB59</f>
+        <f t="shared" ref="AC59:AC93" si="67">AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -30005,8 +30005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30334,72 +30334,72 @@
         <v>20</v>
       </c>
       <c r="K4" s="32">
-        <f t="shared" ref="K4:K5" si="3">J4</f>
+        <f t="shared" ref="K4:K67" si="3">J4</f>
         <v>0</v>
       </c>
       <c r="L4" s="33">
-        <f t="shared" ref="L4:L34" si="4">K4</f>
+        <f t="shared" ref="L4:L67" si="4">K4</f>
         <v>0</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" ref="M4:M34" si="5">L4</f>
+        <f t="shared" ref="M4:M67" si="5">L4</f>
         <v>0</v>
       </c>
       <c r="O4" s="32">
-        <f t="shared" ref="O4:O5" si="6">N4</f>
+        <f t="shared" ref="O4:O67" si="6">N4</f>
         <v>0</v>
       </c>
       <c r="P4" s="33">
-        <f t="shared" ref="P4:P34" si="7">O4</f>
+        <f t="shared" ref="P4:P67" si="7">O4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" ref="Q4:Q34" si="8">P4</f>
+        <f t="shared" ref="Q4:Q67" si="8">P4</f>
         <v>0</v>
       </c>
       <c r="R4" s="31">
         <v>4</v>
       </c>
       <c r="S4" s="32">
-        <f t="shared" ref="S4:S5" si="9">R4</f>
+        <f t="shared" ref="S4:S67" si="9">R4</f>
         <v>4</v>
       </c>
       <c r="T4" s="33">
-        <f t="shared" ref="T4:T34" si="10">S4</f>
+        <f t="shared" ref="T4:T67" si="10">S4</f>
         <v>4</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" ref="U4:U34" si="11">T4</f>
+        <f t="shared" ref="U4:U67" si="11">T4</f>
         <v>4</v>
       </c>
       <c r="V4" s="31">
         <v>20</v>
       </c>
       <c r="W4" s="32">
-        <f t="shared" ref="W4:W5" si="12">V4</f>
+        <f t="shared" ref="W4:W67" si="12">V4</f>
         <v>20</v>
       </c>
       <c r="X4" s="33">
-        <f t="shared" ref="X4:X34" si="13">W4</f>
+        <f t="shared" ref="X4:X67" si="13">W4</f>
         <v>20</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" ref="Y4:Y34" si="14">X4</f>
+        <f t="shared" ref="Y4:Y67" si="14">X4</f>
         <v>20</v>
       </c>
       <c r="Z4" s="31">
         <v>55</v>
       </c>
       <c r="AA4" s="32">
-        <f t="shared" ref="AA4:AA5" si="15">Z4</f>
+        <f t="shared" ref="AA4:AA67" si="15">Z4</f>
         <v>55</v>
       </c>
       <c r="AB4" s="33">
-        <f t="shared" ref="AB4:AB34" si="16">AA4</f>
+        <f t="shared" ref="AB4:AB67" si="16">AA4</f>
         <v>55</v>
       </c>
       <c r="AC4" s="16">
-        <f t="shared" ref="AC4:AC34" si="17">AB4</f>
+        <f t="shared" ref="AC4:AC67" si="17">AB4</f>
         <v>55</v>
       </c>
     </row>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="32">
-        <f t="shared" ref="K8:K10" si="18">J8</f>
+        <f t="shared" ref="K8:K71" si="18">J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="33">
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="32">
-        <f t="shared" ref="O8:O10" si="19">N8</f>
+        <f t="shared" ref="O8:O71" si="19">N8</f>
         <v>0</v>
       </c>
       <c r="P8" s="33">
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="32">
-        <f t="shared" ref="S8:S10" si="20">R8</f>
+        <f t="shared" ref="S8:S71" si="20">R8</f>
         <v>0</v>
       </c>
       <c r="T8" s="33">
@@ -30754,7 +30754,7 @@
         <v>7.5</v>
       </c>
       <c r="W8" s="32">
-        <f t="shared" ref="W8:W10" si="21">V8</f>
+        <f t="shared" ref="W8:W71" si="21">V8</f>
         <v>7.5</v>
       </c>
       <c r="X8" s="33">
@@ -30766,7 +30766,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8" s="32">
-        <f t="shared" ref="AA8:AA10" si="22">Z8</f>
+        <f t="shared" ref="AA8:AA71" si="22">Z8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="33">
@@ -31149,7 +31149,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="32">
-        <f t="shared" ref="K13:K19" si="23">J13</f>
+        <f t="shared" ref="K13:K76" si="23">J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="33">
@@ -31161,7 +31161,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="32">
-        <f t="shared" ref="O13:O19" si="24">N13</f>
+        <f t="shared" ref="O13:O76" si="24">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="33">
@@ -31176,7 +31176,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="32">
-        <f t="shared" ref="S13:S19" si="25">R13</f>
+        <f t="shared" ref="S13:S76" si="25">R13</f>
         <v>0.5</v>
       </c>
       <c r="T13" s="33">
@@ -31191,7 +31191,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="32">
-        <f t="shared" ref="W13:W19" si="26">V13</f>
+        <f t="shared" ref="W13:W76" si="26">V13</f>
         <v>1.7</v>
       </c>
       <c r="X13" s="33">
@@ -31206,7 +31206,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="32">
-        <f t="shared" ref="AA13:AA19" si="27">Z13</f>
+        <f t="shared" ref="AA13:AA76" si="27">Z13</f>
         <v>1</v>
       </c>
       <c r="AB13" s="33">
@@ -31878,7 +31878,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="32">
-        <f t="shared" ref="K21:K23" si="28">J21</f>
+        <f t="shared" ref="K21:K84" si="28">J21</f>
         <v>0</v>
       </c>
       <c r="L21" s="33">
@@ -31890,7 +31890,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="32">
-        <f t="shared" ref="O21:O23" si="29">N21</f>
+        <f t="shared" ref="O21:O84" si="29">N21</f>
         <v>0</v>
       </c>
       <c r="P21" s="33">
@@ -31902,7 +31902,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="32">
-        <f t="shared" ref="S21:S23" si="30">R21</f>
+        <f t="shared" ref="S21:S84" si="30">R21</f>
         <v>0</v>
       </c>
       <c r="T21" s="33">
@@ -31917,7 +31917,7 @@
         <v>33.35</v>
       </c>
       <c r="W21" s="32">
-        <f t="shared" ref="W21:W23" si="31">V21</f>
+        <f t="shared" ref="W21:W84" si="31">V21</f>
         <v>33.35</v>
       </c>
       <c r="X21" s="33">
@@ -31929,7 +31929,7 @@
         <v>33.35</v>
       </c>
       <c r="AA21" s="32">
-        <f t="shared" ref="AA21:AA23" si="32">Z21</f>
+        <f t="shared" ref="AA21:AA84" si="32">Z21</f>
         <v>0</v>
       </c>
       <c r="AB21" s="33">
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="32">
-        <f t="shared" ref="K26:K27" si="33">J26</f>
+        <f t="shared" ref="K26:K89" si="33">J26</f>
         <v>0</v>
       </c>
       <c r="L26" s="33">
@@ -32324,7 +32324,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="32">
-        <f t="shared" ref="O26:O27" si="34">N26</f>
+        <f t="shared" ref="O26:O89" si="34">N26</f>
         <v>0</v>
       </c>
       <c r="P26" s="33">
@@ -32339,7 +32339,7 @@
         <v>3.5</v>
       </c>
       <c r="S26" s="32">
-        <f t="shared" ref="S26:S27" si="35">R26</f>
+        <f t="shared" ref="S26:S89" si="35">R26</f>
         <v>3.5</v>
       </c>
       <c r="T26" s="33">
@@ -32354,7 +32354,7 @@
         <v>11</v>
       </c>
       <c r="W26" s="32">
-        <f t="shared" ref="W26:W27" si="36">V26</f>
+        <f t="shared" ref="W26:W89" si="36">V26</f>
         <v>11</v>
       </c>
       <c r="X26" s="33">
@@ -32369,7 +32369,7 @@
         <v>12</v>
       </c>
       <c r="AA26" s="32">
-        <f t="shared" ref="AA26:AA27" si="37">Z26</f>
+        <f t="shared" ref="AA26:AA89" si="37">Z26</f>
         <v>12</v>
       </c>
       <c r="AB26" s="33">
@@ -32593,7 +32593,7 @@
         <v>9</v>
       </c>
       <c r="K29" s="32">
-        <f t="shared" ref="K29:K30" si="38">J29</f>
+        <f t="shared" ref="K29:K92" si="38">J29</f>
         <v>0</v>
       </c>
       <c r="L29" s="33">
@@ -32605,7 +32605,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="32">
-        <f t="shared" ref="O29:O30" si="39">N29</f>
+        <f t="shared" ref="O29:O92" si="39">N29</f>
         <v>0</v>
       </c>
       <c r="P29" s="33">
@@ -32620,7 +32620,7 @@
         <v>3.5</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" ref="S29:S30" si="40">R29</f>
+        <f t="shared" ref="S29:S92" si="40">R29</f>
         <v>3.5</v>
       </c>
       <c r="T29" s="33">
@@ -32635,7 +32635,7 @@
         <v>11</v>
       </c>
       <c r="W29" s="32">
-        <f t="shared" ref="W29:W30" si="41">V29</f>
+        <f t="shared" ref="W29:W92" si="41">V29</f>
         <v>11</v>
       </c>
       <c r="X29" s="33">
@@ -32650,7 +32650,7 @@
         <v>10</v>
       </c>
       <c r="AA29" s="32">
-        <f t="shared" ref="AA29:AA30" si="42">Z29</f>
+        <f t="shared" ref="AA29:AA92" si="42">Z29</f>
         <v>10</v>
       </c>
       <c r="AB29" s="33">
@@ -32877,7 +32877,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="32">
-        <f t="shared" ref="K32:K34" si="43">J32</f>
+        <f t="shared" ref="K32:K93" si="43">J32</f>
         <v>0</v>
       </c>
       <c r="L32" s="33">
@@ -32889,7 +32889,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="32">
-        <f t="shared" ref="O32:O34" si="44">N32</f>
+        <f t="shared" ref="O32:O93" si="44">N32</f>
         <v>0</v>
       </c>
       <c r="P32" s="33">
@@ -32904,7 +32904,7 @@
         <v>4</v>
       </c>
       <c r="S32" s="32">
-        <f t="shared" ref="S32:S34" si="45">R32</f>
+        <f t="shared" ref="S32:S93" si="45">R32</f>
         <v>4</v>
       </c>
       <c r="T32" s="33">
@@ -32919,7 +32919,7 @@
         <v>15</v>
       </c>
       <c r="W32" s="32">
-        <f t="shared" ref="W32:W34" si="46">V32</f>
+        <f t="shared" ref="W32:W93" si="46">V32</f>
         <v>15</v>
       </c>
       <c r="X32" s="33">
@@ -32931,7 +32931,7 @@
         <v>15</v>
       </c>
       <c r="AA32" s="32">
-        <f t="shared" ref="AA32:AA34" si="47">Z32</f>
+        <f t="shared" ref="AA32:AA93" si="47">Z32</f>
         <v>0</v>
       </c>
       <c r="AB32" s="33">
@@ -33281,7 +33281,7 @@
         <v>63.75</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" ref="M36:M49" si="48">L36</f>
+        <f t="shared" ref="M36:M93" si="48">L36</f>
         <v>63.75</v>
       </c>
       <c r="N36" s="31">
@@ -33296,7 +33296,7 @@
         <v>75</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" ref="Q36:Q49" si="49">P36</f>
+        <f t="shared" ref="Q36:Q93" si="49">P36</f>
         <v>75</v>
       </c>
       <c r="R36" s="31">
@@ -33311,7 +33311,7 @@
         <v>67.5</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" ref="U36:U49" si="50">T36</f>
+        <f t="shared" ref="U36:U93" si="50">T36</f>
         <v>67.5</v>
       </c>
       <c r="V36" s="31">
@@ -33326,7 +33326,7 @@
         <v>63.75</v>
       </c>
       <c r="Y36" s="16">
-        <f t="shared" ref="Y36:Y49" si="51">X36</f>
+        <f t="shared" ref="Y36:Y93" si="51">X36</f>
         <v>63.75</v>
       </c>
       <c r="Z36" s="31">
@@ -33341,7 +33341,7 @@
         <v>67.5</v>
       </c>
       <c r="AC36" s="16">
-        <f t="shared" ref="AC36:AC49" si="52">AB36</f>
+        <f t="shared" ref="AC36:AC93" si="52">AB36</f>
         <v>67.5</v>
       </c>
     </row>
@@ -33374,11 +33374,11 @@
         <v>2</v>
       </c>
       <c r="K37" s="32">
-        <f t="shared" ref="K37" si="53">J37</f>
+        <f t="shared" ref="K37:K93" si="53">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="33">
-        <f t="shared" ref="L37" si="54">K37</f>
+        <f t="shared" ref="L37:L93" si="54">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="16">
@@ -33386,11 +33386,11 @@
         <v>2</v>
       </c>
       <c r="O37" s="32">
-        <f t="shared" ref="O37" si="55">N37</f>
+        <f t="shared" ref="O37:O93" si="55">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="33">
-        <f t="shared" ref="P37" si="56">O37</f>
+        <f t="shared" ref="P37:P93" si="56">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
@@ -33401,11 +33401,11 @@
         <v>1</v>
       </c>
       <c r="S37" s="32">
-        <f t="shared" ref="S37" si="57">R37</f>
+        <f t="shared" ref="S37:S93" si="57">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="33">
-        <f t="shared" ref="T37" si="58">S37</f>
+        <f t="shared" ref="T37:T93" si="58">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="16">
@@ -33413,11 +33413,11 @@
         <v>1</v>
       </c>
       <c r="W37" s="32">
-        <f t="shared" ref="W37" si="59">V37</f>
+        <f t="shared" ref="W37:W93" si="59">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="33">
-        <f t="shared" ref="X37" si="60">W37</f>
+        <f t="shared" ref="X37:X93" si="60">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
@@ -33425,11 +33425,11 @@
         <v>0</v>
       </c>
       <c r="AA37" s="32">
-        <f t="shared" ref="AA37" si="61">Z37</f>
+        <f t="shared" ref="AA37:AA93" si="61">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="33">
-        <f t="shared" ref="AB37" si="62">AA37</f>
+        <f t="shared" ref="AB37:AB93" si="62">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
@@ -33655,11 +33655,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="32">
-        <f t="shared" ref="K40:K47" si="63">J40</f>
+        <f t="shared" ref="K40:K93" si="63">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="33">
-        <f t="shared" ref="L40" si="64">K40</f>
+        <f t="shared" ref="L40:L93" si="64">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="16">
@@ -33670,11 +33670,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="32">
-        <f t="shared" ref="O40:O47" si="65">N40</f>
+        <f t="shared" ref="O40:O93" si="65">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="33">
-        <f t="shared" ref="P40" si="66">O40</f>
+        <f t="shared" ref="P40:P93" si="66">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
@@ -33685,11 +33685,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="32">
-        <f t="shared" ref="S40:S47" si="67">R40</f>
+        <f t="shared" ref="S40:S93" si="67">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="33">
-        <f t="shared" ref="T40" si="68">S40</f>
+        <f t="shared" ref="T40:T93" si="68">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="16">
@@ -33700,11 +33700,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="32">
-        <f t="shared" ref="W40:W47" si="69">V40</f>
+        <f t="shared" ref="W40:W93" si="69">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="33">
-        <f t="shared" ref="X40" si="70">W40</f>
+        <f t="shared" ref="X40:X93" si="70">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
@@ -33715,11 +33715,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="32">
-        <f t="shared" ref="AA40:AA47" si="71">Z40</f>
+        <f t="shared" ref="AA40:AA93" si="71">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="33">
-        <f t="shared" ref="AB40" si="72">AA40</f>
+        <f t="shared" ref="AB40:AB93" si="72">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
@@ -33957,7 +33957,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="33">
-        <f t="shared" ref="L43:L44" si="73">K43</f>
+        <f t="shared" ref="L43:L93" si="73">K43</f>
         <v>0</v>
       </c>
       <c r="M43" s="16">
@@ -33972,7 +33972,7 @@
         <v>85</v>
       </c>
       <c r="P43" s="33">
-        <f t="shared" ref="P43:P44" si="74">O43</f>
+        <f t="shared" ref="P43:P93" si="74">O43</f>
         <v>85</v>
       </c>
       <c r="Q43" s="16">
@@ -33987,7 +33987,7 @@
         <v>90</v>
       </c>
       <c r="T43" s="33">
-        <f t="shared" ref="T43:T44" si="75">S43</f>
+        <f t="shared" ref="T43:T93" si="75">S43</f>
         <v>90</v>
       </c>
       <c r="U43" s="16">
@@ -34002,7 +34002,7 @@
         <v>80</v>
       </c>
       <c r="X43" s="33">
-        <f t="shared" ref="X43:X44" si="76">W43</f>
+        <f t="shared" ref="X43:X93" si="76">W43</f>
         <v>80</v>
       </c>
       <c r="Y43" s="16">
@@ -34017,7 +34017,7 @@
         <v>60</v>
       </c>
       <c r="AB43" s="33">
-        <f t="shared" ref="AB43:AB44" si="77">AA43</f>
+        <f t="shared" ref="AB43:AB93" si="77">AA43</f>
         <v>60</v>
       </c>
       <c r="AC43" s="16">
@@ -34344,7 +34344,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="33">
-        <f t="shared" ref="L47:L49" si="78">K47</f>
+        <f t="shared" ref="L47:L93" si="78">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="16">
@@ -34359,7 +34359,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="33">
-        <f t="shared" ref="P47:P49" si="79">O47</f>
+        <f t="shared" ref="P47:P93" si="79">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="16">
@@ -34374,7 +34374,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="33">
-        <f t="shared" ref="T47:T49" si="80">S47</f>
+        <f t="shared" ref="T47:T93" si="80">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="16">
@@ -34386,7 +34386,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="33">
-        <f t="shared" ref="X47:X49" si="81">W47</f>
+        <f t="shared" ref="X47:X93" si="81">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="16">
@@ -34401,7 +34401,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="33">
-        <f t="shared" ref="AB47:AB49" si="82">AA47</f>
+        <f t="shared" ref="AB47:AB93" si="82">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="16">
@@ -35263,7 +35263,7 @@
         <v>20</v>
       </c>
       <c r="K56" s="32">
-        <f t="shared" ref="K56:K79" si="95">J56</f>
+        <f t="shared" ref="K56:K93" si="95">J56</f>
         <v>0</v>
       </c>
       <c r="L56" s="15">
@@ -35275,7 +35275,7 @@
         <v>1.875</v>
       </c>
       <c r="O56" s="32">
-        <f t="shared" ref="O56:O79" si="96">N56</f>
+        <f t="shared" ref="O56:O93" si="96">N56</f>
         <v>0</v>
       </c>
       <c r="P56" s="15">
@@ -35290,7 +35290,7 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="32">
-        <f t="shared" ref="S56:S79" si="97">R56</f>
+        <f t="shared" ref="S56:S93" si="97">R56</f>
         <v>0.5</v>
       </c>
       <c r="T56" s="15">
@@ -35305,7 +35305,7 @@
         <v>0.75</v>
       </c>
       <c r="W56" s="32">
-        <f t="shared" ref="W56:W79" si="98">V56</f>
+        <f t="shared" ref="W56:W93" si="98">V56</f>
         <v>0.75</v>
       </c>
       <c r="X56" s="15">
@@ -35317,7 +35317,7 @@
         <v>1.5</v>
       </c>
       <c r="AA56" s="32">
-        <f t="shared" ref="AA56:AA79" si="99">Z56</f>
+        <f t="shared" ref="AA56:AA93" si="99">Z56</f>
         <v>0</v>
       </c>
       <c r="AB56" s="15">
@@ -35551,11 +35551,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="33">
-        <f t="shared" ref="L59:L85" si="100">K59</f>
+        <f t="shared" ref="L59:L93" si="100">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f t="shared" ref="M59:M79" si="101">L59</f>
+        <f t="shared" ref="M59:M93" si="101">L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="32">
@@ -35563,11 +35563,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="33">
-        <f t="shared" ref="P59:P85" si="102">O59</f>
+        <f t="shared" ref="P59:P93" si="102">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" ref="Q59:Q79" si="103">P59</f>
+        <f t="shared" ref="Q59:Q93" si="103">P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="31">
@@ -35578,11 +35578,11 @@
         <v>3.5</v>
       </c>
       <c r="T59" s="33">
-        <f t="shared" ref="T59:T85" si="104">S59</f>
+        <f t="shared" ref="T59:T93" si="104">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" ref="U59:U79" si="105">T59</f>
+        <f t="shared" ref="U59:U93" si="105">T59</f>
         <v>3.5</v>
       </c>
       <c r="W59" s="32">
@@ -35590,11 +35590,11 @@
         <v>0</v>
       </c>
       <c r="X59" s="33">
-        <f t="shared" ref="X59:X85" si="106">W59</f>
+        <f t="shared" ref="X59:X93" si="106">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f t="shared" ref="Y59:Y79" si="107">X59</f>
+        <f t="shared" ref="Y59:Y93" si="107">X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="32">
@@ -35602,11 +35602,11 @@
         <v>0</v>
       </c>
       <c r="AB59" s="33">
-        <f t="shared" ref="AB59:AB85" si="108">AA59</f>
+        <f t="shared" ref="AB59:AB93" si="108">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f t="shared" ref="AC59:AC79" si="109">AB59</f>
+        <f t="shared" ref="AC59:AC93" si="109">AB59</f>
         <v>0</v>
       </c>
     </row>

--- a/specifications/4_Wind/ScriptRules_Wind.xlsx
+++ b/specifications/4_Wind/ScriptRules_Wind.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2720,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="B34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7428,8 +7428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="B63" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,10 +7438,10 @@
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="13" width="18.5703125" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="14">
-        <f t="shared" ref="M3:M47" si="3">L3</f>
+        <f t="shared" ref="M3:M66" si="3">L3</f>
         <v>0</v>
       </c>
       <c r="O3" s="10">
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="14">
-        <f t="shared" ref="Q3:Q47" si="5">P3</f>
+        <f t="shared" ref="Q3:Q66" si="5">P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="9">
@@ -7699,7 +7699,7 @@
         <v>2.9</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" ref="U3:U47" si="7">T3</f>
+        <f t="shared" ref="U3:U66" si="7">T3</f>
         <v>2.9</v>
       </c>
       <c r="V3" s="9">
@@ -7714,7 +7714,7 @@
         <v>14</v>
       </c>
       <c r="Y3" s="14">
-        <f t="shared" ref="Y3:Y47" si="9">X3</f>
+        <f t="shared" ref="Y3:Y66" si="9">X3</f>
         <v>14</v>
       </c>
       <c r="Z3" s="9">
@@ -7729,7 +7729,7 @@
         <v>12</v>
       </c>
       <c r="AC3" s="14">
-        <f t="shared" ref="AC3:AC47" si="11">AB3</f>
+        <f t="shared" ref="AC3:AC66" si="11">AB3</f>
         <v>12</v>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" ref="L47" si="25">K47</f>
+        <f t="shared" ref="L47:L93" si="25">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="14">
@@ -11782,7 +11782,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="13">
-        <f t="shared" ref="P47" si="26">O47</f>
+        <f t="shared" ref="P47:P93" si="26">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="14">
@@ -11797,7 +11797,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="13">
-        <f t="shared" ref="T47" si="27">S47</f>
+        <f t="shared" ref="T47:T93" si="27">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="14">
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="13">
-        <f t="shared" ref="X47" si="28">W47</f>
+        <f t="shared" ref="X47:X93" si="28">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="14">
@@ -11824,7 +11824,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="13">
-        <f t="shared" ref="AB47" si="29">AA47</f>
+        <f t="shared" ref="AB47:AB93" si="29">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="14">
@@ -11852,7 +11852,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="10">
-        <f>MAX(1,$C48*F48)</f>
+        <f>$C48*F48</f>
         <v>5</v>
       </c>
       <c r="H48" s="13">
@@ -11867,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="10">
-        <f>MAX(1,$C48*J48)</f>
+        <f>$C48*J48</f>
         <v>1.25</v>
       </c>
       <c r="L48" s="13">
@@ -11879,37 +11879,37 @@
         <v>0.234375</v>
       </c>
       <c r="O48" s="10">
-        <f>MAX(1,$C48*N48)</f>
-        <v>1</v>
+        <f>$C48*N48</f>
+        <v>0</v>
       </c>
       <c r="P48" s="13">
         <f>$D48*O48</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="36">
         <f t="shared" ref="Q48:Q55" si="32">$E48*P48</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="R48" s="9">
         <v>0.5</v>
       </c>
       <c r="S48" s="10">
-        <f>MAX(1,$C48*R48)</f>
-        <v>1</v>
+        <f>$C48*R48</f>
+        <v>0.625</v>
       </c>
       <c r="T48" s="13">
         <f>$D48*S48</f>
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="U48" s="36">
         <f t="shared" ref="U48:U55" si="33">$E48*T48</f>
-        <v>0.1875</v>
+        <v>0.1171875</v>
       </c>
       <c r="V48" s="9">
         <v>1</v>
       </c>
       <c r="W48" s="10">
-        <f>MAX(1,$C48*V48)</f>
+        <f>$C48*V48</f>
         <v>1.25</v>
       </c>
       <c r="X48" s="13">
@@ -11924,16 +11924,16 @@
         <v>0.5</v>
       </c>
       <c r="AA48" s="10">
-        <f>MAX(1,$C48*Z48)</f>
-        <v>1</v>
+        <f>$C48*Z48</f>
+        <v>0.625</v>
       </c>
       <c r="AB48" s="13">
         <f>$D48*AA48</f>
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="AC48" s="36">
         <f t="shared" ref="AC48:AC55" si="35">$E48*AB48</f>
-        <v>0.1875</v>
+        <v>0.1171875</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -11956,11 +11956,11 @@
         <v>70</v>
       </c>
       <c r="G49" s="10">
-        <f>MIN(100,MAX(25,$C49*F49))</f>
+        <f>$C49*F49</f>
         <v>87.5</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" ref="H49:H55" si="36">$D49*G49</f>
+        <f>$D49*G49</f>
         <v>65.625</v>
       </c>
       <c r="I49" s="36">
@@ -11971,11 +11971,11 @@
         <v>50</v>
       </c>
       <c r="K49" s="10">
-        <f>MIN(100,MAX(25,$C49*J49))</f>
+        <f>$C49*J49</f>
         <v>62.5</v>
       </c>
       <c r="L49" s="13">
-        <f t="shared" ref="L49:L55" si="37">$D49*K49</f>
+        <f>$D49*K49</f>
         <v>46.875</v>
       </c>
       <c r="M49" s="36">
@@ -11983,26 +11983,26 @@
         <v>11.71875</v>
       </c>
       <c r="O49" s="10">
-        <f>MIN(100,MAX(25,$C49*N49))</f>
-        <v>25</v>
+        <f>$C49*N49</f>
+        <v>0</v>
       </c>
       <c r="P49" s="13">
-        <f t="shared" ref="P49:P55" si="38">$D49*O49</f>
-        <v>18.75</v>
+        <f>$D49*O49</f>
+        <v>0</v>
       </c>
       <c r="Q49" s="36">
         <f t="shared" si="32"/>
-        <v>4.6875</v>
+        <v>0</v>
       </c>
       <c r="R49" s="9">
         <v>30</v>
       </c>
       <c r="S49" s="10">
-        <f>MIN(100,MAX(25,$C49*R49))</f>
+        <f>$C49*R49</f>
         <v>37.5</v>
       </c>
       <c r="T49" s="13">
-        <f t="shared" ref="T49:T55" si="39">$D49*S49</f>
+        <f>$D49*S49</f>
         <v>28.125</v>
       </c>
       <c r="U49" s="36">
@@ -12013,11 +12013,11 @@
         <v>40</v>
       </c>
       <c r="W49" s="10">
-        <f>MIN(100,MAX(25,$C49*V49))</f>
+        <f>$C49*V49</f>
         <v>50</v>
       </c>
       <c r="X49" s="13">
-        <f t="shared" ref="X49:X55" si="40">$D49*W49</f>
+        <f>$D49*W49</f>
         <v>37.5</v>
       </c>
       <c r="Y49" s="36">
@@ -12028,16 +12028,16 @@
         <v>15</v>
       </c>
       <c r="AA49" s="10">
-        <f>MIN(100,MAX(25,$C49*Z49))</f>
-        <v>25</v>
+        <f>$C49*Z49</f>
+        <v>18.75</v>
       </c>
       <c r="AB49" s="13">
-        <f t="shared" ref="AB49:AB55" si="41">$D49*AA49</f>
-        <v>18.75</v>
+        <f>$D49*AA49</f>
+        <v>14.0625</v>
       </c>
       <c r="AC49" s="36">
         <f t="shared" si="35"/>
-        <v>4.6875</v>
+        <v>3.515625</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12064,7 +12064,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="H49:H55" si="36">$D50*G50</f>
         <v>2.25</v>
       </c>
       <c r="I50" s="36">
@@ -12079,7 +12079,7 @@
         <v>1.5</v>
       </c>
       <c r="L50" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="L50:L56" si="37">$D50*K50</f>
         <v>1.125</v>
       </c>
       <c r="M50" s="36">
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="P50:P56" si="38">$D50*O50</f>
         <v>0</v>
       </c>
       <c r="Q50" s="36">
@@ -12106,7 +12106,7 @@
         <v>0.75</v>
       </c>
       <c r="T50" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="T50:T56" si="39">$D50*S50</f>
         <v>0.5625</v>
       </c>
       <c r="U50" s="36">
@@ -12121,7 +12121,7 @@
         <v>1.5</v>
       </c>
       <c r="X50" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="X50:X56" si="40">$D50*W50</f>
         <v>1.125</v>
       </c>
       <c r="Y50" s="36">
@@ -12136,7 +12136,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="AB50" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AB50:AB56" si="41">$D50*AA50</f>
         <v>0.33749999999999997</v>
       </c>
       <c r="AC50" s="36">
@@ -12986,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" ref="M59:M79" si="48">L59</f>
+        <f t="shared" ref="M59:M93" si="48">L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="10">
@@ -12998,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="14">
-        <f t="shared" ref="Q59:Q79" si="49">P59</f>
+        <f t="shared" ref="Q59:Q93" si="49">P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="9">
@@ -13013,7 +13013,7 @@
         <v>3.5</v>
       </c>
       <c r="U59" s="14">
-        <f t="shared" ref="U59:U79" si="50">T59</f>
+        <f t="shared" ref="U59:U93" si="50">T59</f>
         <v>3.5</v>
       </c>
       <c r="W59" s="10">
@@ -13025,7 +13025,7 @@
         <v>3.5</v>
       </c>
       <c r="Y59" s="14">
-        <f t="shared" ref="Y59:Y79" si="51">X59</f>
+        <f t="shared" ref="Y59:Y93" si="51">X59</f>
         <v>3.5</v>
       </c>
       <c r="AA59" s="10">
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="14">
-        <f t="shared" ref="AC59:AC79" si="52">AB59</f>
+        <f t="shared" ref="AC59:AC93" si="52">AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="13">
-        <f t="shared" ref="L61:L85" si="53">K61</f>
+        <f t="shared" ref="L61:L93" si="53">K61</f>
         <v>0</v>
       </c>
       <c r="M61" s="14">
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="13">
-        <f t="shared" ref="P61:P85" si="54">O61</f>
+        <f t="shared" ref="P61:P93" si="54">O61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="14">
@@ -13187,7 +13187,7 @@
         <v>50</v>
       </c>
       <c r="T61" s="13">
-        <f t="shared" ref="T61:T85" si="55">S61</f>
+        <f t="shared" ref="T61:T93" si="55">S61</f>
         <v>50</v>
       </c>
       <c r="U61" s="14">
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="13">
-        <f t="shared" ref="X61:X85" si="56">W61</f>
+        <f t="shared" ref="X61:X93" si="56">W61</f>
         <v>0</v>
       </c>
       <c r="Y61" s="14">
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AB61" s="13">
-        <f t="shared" ref="AB61:AB85" si="57">AA61</f>
+        <f t="shared" ref="AB61:AB93" si="57">AA61</f>
         <v>0</v>
       </c>
       <c r="AC61" s="14">
@@ -15071,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="10">
-        <f t="shared" ref="K82:K85" si="60">J82</f>
+        <f t="shared" ref="K82:K93" si="60">J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="13">
@@ -15083,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="10">
-        <f t="shared" ref="O82:O85" si="62">N82</f>
+        <f t="shared" ref="O82:O93" si="62">N82</f>
         <v>0</v>
       </c>
       <c r="P82" s="13">
@@ -15098,7 +15098,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="10">
-        <f t="shared" ref="S82:S85" si="64">R82</f>
+        <f t="shared" ref="S82:S93" si="64">R82</f>
         <v>2.5</v>
       </c>
       <c r="T82" s="13">
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="10">
-        <f t="shared" ref="W82:W85" si="66">V82</f>
+        <f t="shared" ref="W82:W93" si="66">V82</f>
         <v>1</v>
       </c>
       <c r="X82" s="13">
@@ -15125,7 +15125,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="10">
-        <f t="shared" ref="AA82:AA85" si="68">Z82</f>
+        <f t="shared" ref="AA82:AA93" si="68">Z82</f>
         <v>0</v>
       </c>
       <c r="AB82" s="13">
@@ -15420,11 +15420,11 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="10">
-        <f>$C86*F86</f>
-        <v>0</v>
+        <f>F86</f>
+        <v>0.5</v>
       </c>
       <c r="H86" s="13">
-        <f>$D86*F86</f>
+        <f>$D86*G86</f>
         <v>0.625</v>
       </c>
       <c r="I86" s="14">
@@ -15435,11 +15435,11 @@
         <v>0.4</v>
       </c>
       <c r="K86" s="10">
-        <f>$C86*J86</f>
-        <v>0</v>
+        <f>J86</f>
+        <v>0.4</v>
       </c>
       <c r="L86" s="13">
-        <f>$D86*J86</f>
+        <f>$D86*K86</f>
         <v>0.5</v>
       </c>
       <c r="M86" s="14">
@@ -15450,11 +15450,11 @@
         <v>0.2</v>
       </c>
       <c r="O86" s="10">
-        <f>$C86*N86</f>
-        <v>0</v>
+        <f>N86</f>
+        <v>0.2</v>
       </c>
       <c r="P86" s="13">
-        <f>$D86*N86</f>
+        <f>$D86*O86</f>
         <v>0.25</v>
       </c>
       <c r="Q86" s="14">
@@ -15465,11 +15465,11 @@
         <v>4</v>
       </c>
       <c r="S86" s="10">
-        <f>$C86*R86</f>
-        <v>0</v>
+        <f>R86</f>
+        <v>4</v>
       </c>
       <c r="T86" s="13">
-        <f>$D86*R86</f>
+        <f>$D86*S86</f>
         <v>5</v>
       </c>
       <c r="U86" s="14">
@@ -15480,11 +15480,11 @@
         <v>1</v>
       </c>
       <c r="W86" s="10">
-        <f>$C86*V86</f>
-        <v>0</v>
+        <f>V86</f>
+        <v>1</v>
       </c>
       <c r="X86" s="13">
-        <f>$D86*V86</f>
+        <f>$D86*W86</f>
         <v>1.25</v>
       </c>
       <c r="Y86" s="14">
@@ -15495,11 +15495,11 @@
         <v>1.5</v>
       </c>
       <c r="AA86" s="10">
-        <f>$C86*Z86</f>
-        <v>0</v>
+        <f>Z86</f>
+        <v>1.5</v>
       </c>
       <c r="AB86" s="13">
-        <f>$D86*Z86</f>
+        <f>$D86*AA86</f>
         <v>1.875</v>
       </c>
       <c r="AC86" s="14">
@@ -15523,11 +15523,11 @@
         <v>70</v>
       </c>
       <c r="G87" s="10">
-        <f>$C87*F87</f>
-        <v>0</v>
+        <f>F87</f>
+        <v>70</v>
       </c>
       <c r="H87" s="13">
-        <f>MIN(100,$D87*F87)</f>
+        <f>$D87*G87</f>
         <v>87.5</v>
       </c>
       <c r="I87" s="14">
@@ -15538,11 +15538,11 @@
         <v>60</v>
       </c>
       <c r="K87" s="10">
-        <f>$C87*J87</f>
-        <v>0</v>
+        <f>J87</f>
+        <v>60</v>
       </c>
       <c r="L87" s="13">
-        <f>MIN(100,$D87*J87)</f>
+        <f>$D87*K87</f>
         <v>75</v>
       </c>
       <c r="M87" s="14">
@@ -15553,11 +15553,11 @@
         <v>70</v>
       </c>
       <c r="O87" s="10">
-        <f>$C87*N87</f>
-        <v>0</v>
+        <f>N87</f>
+        <v>70</v>
       </c>
       <c r="P87" s="13">
-        <f>MIN(100,$D87*N87)</f>
+        <f>$D87*O87</f>
         <v>87.5</v>
       </c>
       <c r="Q87" s="14">
@@ -15568,41 +15568,41 @@
         <v>100</v>
       </c>
       <c r="S87" s="10">
-        <f>$C87*R87</f>
-        <v>0</v>
+        <f>R87</f>
+        <v>100</v>
       </c>
       <c r="T87" s="13">
-        <f>MIN(100,$D87*R87)</f>
-        <v>100</v>
+        <f>$D87*S87</f>
+        <v>125</v>
       </c>
       <c r="U87" s="14">
         <f t="shared" si="65"/>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="V87" s="9">
         <v>90</v>
       </c>
       <c r="W87" s="10">
-        <f>$C87*V87</f>
-        <v>0</v>
+        <f>V87</f>
+        <v>90</v>
       </c>
       <c r="X87" s="13">
-        <f>MIN(100,$D87*V87)</f>
-        <v>100</v>
+        <f>$D87*W87</f>
+        <v>112.5</v>
       </c>
       <c r="Y87" s="14">
         <f t="shared" si="67"/>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="Z87" s="9">
         <v>70</v>
       </c>
       <c r="AA87" s="10">
-        <f>$C87*Z87</f>
-        <v>0</v>
+        <f>Z87</f>
+        <v>70</v>
       </c>
       <c r="AB87" s="13">
-        <f>MIN(100,$D87*Z87)</f>
+        <f>$D87*AA87</f>
         <v>87.5</v>
       </c>
       <c r="AC87" s="14">
@@ -18702,8 +18702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19053,7 +19053,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" ref="M4:M34" si="3">L4</f>
+        <f t="shared" ref="M4:M67" si="3">L4</f>
         <v>0</v>
       </c>
       <c r="O4" s="39">
@@ -19065,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" ref="Q4:Q34" si="5">P4</f>
+        <f t="shared" ref="Q4:Q67" si="5">P4</f>
         <v>0</v>
       </c>
       <c r="R4" s="9">
@@ -19080,7 +19080,7 @@
         <v>4</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" ref="U4:U34" si="7">T4</f>
+        <f t="shared" ref="U4:U67" si="7">T4</f>
         <v>4</v>
       </c>
       <c r="V4" s="9">
@@ -19095,7 +19095,7 @@
         <v>20</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" ref="Y4:Y34" si="9">X4</f>
+        <f t="shared" ref="Y4:Y67" si="9">X4</f>
         <v>20</v>
       </c>
       <c r="Z4" s="9">
@@ -19110,7 +19110,7 @@
         <v>55</v>
       </c>
       <c r="AC4" s="16">
-        <f t="shared" ref="AC4:AC34" si="11">AB4</f>
+        <f t="shared" ref="AC4:AC67" si="11">AB4</f>
         <v>55</v>
       </c>
     </row>
@@ -21992,7 +21992,7 @@
         <v>77.349999999999994</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" ref="M36:M37" si="18">L36</f>
+        <f t="shared" ref="M36:M93" si="18">L36</f>
         <v>77.349999999999994</v>
       </c>
       <c r="N36" s="9">
@@ -22007,7 +22007,7 @@
         <v>91</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" ref="Q36:Q37" si="19">P36</f>
+        <f t="shared" ref="Q36:Q93" si="19">P36</f>
         <v>91</v>
       </c>
       <c r="R36" s="9">
@@ -22022,7 +22022,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" ref="U36:U37" si="20">T36</f>
+        <f t="shared" ref="U36:U93" si="20">T36</f>
         <v>81.899999999999991</v>
       </c>
       <c r="V36" s="9">
@@ -22037,7 +22037,7 @@
         <v>77.349999999999994</v>
       </c>
       <c r="Y36" s="16">
-        <f t="shared" ref="Y36:Y37" si="21">X36</f>
+        <f t="shared" ref="Y36:Y93" si="21">X36</f>
         <v>77.349999999999994</v>
       </c>
       <c r="Z36" s="9">
@@ -22052,7 +22052,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="AC36" s="16">
-        <f t="shared" ref="AC36:AC37" si="22">AB36</f>
+        <f t="shared" ref="AC36:AC93" si="22">AB36</f>
         <v>81.899999999999991</v>
       </c>
     </row>
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="44">
-        <f t="shared" ref="M40:M47" si="23">L40</f>
+        <f t="shared" ref="M40:M93" si="23">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="9">
@@ -22393,7 +22393,7 @@
         <v>2</v>
       </c>
       <c r="Q40" s="44">
-        <f t="shared" ref="Q40:Q47" si="24">P40</f>
+        <f t="shared" ref="Q40:Q93" si="24">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="9">
@@ -22408,7 +22408,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="44">
-        <f t="shared" ref="U40:U47" si="25">T40</f>
+        <f t="shared" ref="U40:U93" si="25">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="9">
@@ -22423,7 +22423,7 @@
         <v>2.5</v>
       </c>
       <c r="Y40" s="44">
-        <f t="shared" ref="Y40:Y47" si="26">X40</f>
+        <f t="shared" ref="Y40:Y93" si="26">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="9">
@@ -22438,7 +22438,7 @@
         <v>2</v>
       </c>
       <c r="AC40" s="44">
-        <f t="shared" ref="AC40:AC47" si="27">AB40</f>
+        <f t="shared" ref="AC40:AC93" si="27">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -23059,7 +23059,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="40">
-        <f t="shared" ref="L47" si="35">K47</f>
+        <f t="shared" ref="L47:L93" si="35">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="16">
@@ -23074,7 +23074,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="40">
-        <f t="shared" ref="P47" si="36">O47</f>
+        <f t="shared" ref="P47:P93" si="36">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="16">
@@ -23089,7 +23089,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="40">
-        <f t="shared" ref="T47" si="37">S47</f>
+        <f t="shared" ref="T47:T93" si="37">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="16">
@@ -23101,7 +23101,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="40">
-        <f t="shared" ref="X47" si="38">W47</f>
+        <f t="shared" ref="X47:X93" si="38">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="16">
@@ -23116,7 +23116,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="40">
-        <f t="shared" ref="AB47" si="39">AA47</f>
+        <f t="shared" ref="AB47:AB93" si="39">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="16">
@@ -24274,11 +24274,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="28">
-        <f t="shared" ref="L59:L85" si="58">K59</f>
+        <f t="shared" ref="L59:L93" si="58">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f t="shared" ref="M59:M79" si="59">L59</f>
+        <f t="shared" ref="M59:M93" si="59">L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="39">
@@ -24286,11 +24286,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="28">
-        <f t="shared" ref="P59:P85" si="60">O59</f>
+        <f t="shared" ref="P59:P93" si="60">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" ref="Q59:Q79" si="61">P59</f>
+        <f t="shared" ref="Q59:Q93" si="61">P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="9">
@@ -24301,11 +24301,11 @@
         <v>3.5</v>
       </c>
       <c r="T59" s="28">
-        <f t="shared" ref="T59:T85" si="62">S59</f>
+        <f t="shared" ref="T59:T93" si="62">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" ref="U59:U79" si="63">T59</f>
+        <f t="shared" ref="U59:U93" si="63">T59</f>
         <v>3.5</v>
       </c>
       <c r="W59" s="39">
@@ -24313,11 +24313,11 @@
         <v>0</v>
       </c>
       <c r="X59" s="28">
-        <f t="shared" ref="X59:X85" si="64">W59</f>
+        <f t="shared" ref="X59:X93" si="64">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f t="shared" ref="Y59:Y79" si="65">X59</f>
+        <f t="shared" ref="Y59:Y93" si="65">X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="39">
@@ -24325,11 +24325,11 @@
         <v>0</v>
       </c>
       <c r="AB59" s="28">
-        <f t="shared" ref="AB59:AB85" si="66">AA59</f>
+        <f t="shared" ref="AB59:AB93" si="66">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f t="shared" ref="AC59:AC79" si="67">AB59</f>
+        <f t="shared" ref="AC59:AC93" si="67">AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -29991,8 +29991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30322,72 +30322,72 @@
         <v>20</v>
       </c>
       <c r="K4" s="27">
-        <f t="shared" ref="K4:K5" si="3">J4</f>
+        <f t="shared" ref="K4:K67" si="3">J4</f>
         <v>0</v>
       </c>
       <c r="L4" s="28">
-        <f t="shared" ref="L4:L34" si="4">K4</f>
+        <f t="shared" ref="L4:L67" si="4">K4</f>
         <v>0</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" ref="M4:M34" si="5">L4</f>
+        <f t="shared" ref="M4:M67" si="5">L4</f>
         <v>0</v>
       </c>
       <c r="O4" s="27">
-        <f t="shared" ref="O4:O5" si="6">N4</f>
+        <f t="shared" ref="O4:O67" si="6">N4</f>
         <v>0</v>
       </c>
       <c r="P4" s="28">
-        <f t="shared" ref="P4:P34" si="7">O4</f>
+        <f t="shared" ref="P4:P67" si="7">O4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" ref="Q4:Q34" si="8">P4</f>
+        <f t="shared" ref="Q4:Q67" si="8">P4</f>
         <v>0</v>
       </c>
       <c r="R4" s="26">
         <v>4</v>
       </c>
       <c r="S4" s="27">
-        <f t="shared" ref="S4:S5" si="9">R4</f>
+        <f t="shared" ref="S4:S67" si="9">R4</f>
         <v>4</v>
       </c>
       <c r="T4" s="28">
-        <f t="shared" ref="T4:T34" si="10">S4</f>
+        <f t="shared" ref="T4:T67" si="10">S4</f>
         <v>4</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" ref="U4:U34" si="11">T4</f>
+        <f t="shared" ref="U4:U67" si="11">T4</f>
         <v>4</v>
       </c>
       <c r="V4" s="26">
         <v>20</v>
       </c>
       <c r="W4" s="27">
-        <f t="shared" ref="W4:W5" si="12">V4</f>
+        <f t="shared" ref="W4:W67" si="12">V4</f>
         <v>20</v>
       </c>
       <c r="X4" s="28">
-        <f t="shared" ref="X4:X34" si="13">W4</f>
+        <f t="shared" ref="X4:X67" si="13">W4</f>
         <v>20</v>
       </c>
       <c r="Y4" s="14">
-        <f t="shared" ref="Y4:Y34" si="14">X4</f>
+        <f t="shared" ref="Y4:Y67" si="14">X4</f>
         <v>20</v>
       </c>
       <c r="Z4" s="26">
         <v>55</v>
       </c>
       <c r="AA4" s="27">
-        <f t="shared" ref="AA4:AA5" si="15">Z4</f>
+        <f t="shared" ref="AA4:AA67" si="15">Z4</f>
         <v>55</v>
       </c>
       <c r="AB4" s="28">
-        <f t="shared" ref="AB4:AB34" si="16">AA4</f>
+        <f t="shared" ref="AB4:AB67" si="16">AA4</f>
         <v>55</v>
       </c>
       <c r="AC4" s="14">
-        <f t="shared" ref="AC4:AC34" si="17">AB4</f>
+        <f t="shared" ref="AC4:AC67" si="17">AB4</f>
         <v>55</v>
       </c>
     </row>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="27">
-        <f t="shared" ref="K8:K10" si="18">J8</f>
+        <f t="shared" ref="K8:K71" si="18">J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="28">
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="27">
-        <f t="shared" ref="O8:O10" si="19">N8</f>
+        <f t="shared" ref="O8:O71" si="19">N8</f>
         <v>0</v>
       </c>
       <c r="P8" s="28">
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="27">
-        <f t="shared" ref="S8:S10" si="20">R8</f>
+        <f t="shared" ref="S8:S71" si="20">R8</f>
         <v>0</v>
       </c>
       <c r="T8" s="28">
@@ -30742,7 +30742,7 @@
         <v>7.5</v>
       </c>
       <c r="W8" s="27">
-        <f t="shared" ref="W8:W10" si="21">V8</f>
+        <f t="shared" ref="W8:W71" si="21">V8</f>
         <v>7.5</v>
       </c>
       <c r="X8" s="28">
@@ -30754,7 +30754,7 @@
         <v>7.5</v>
       </c>
       <c r="AA8" s="27">
-        <f t="shared" ref="AA8:AA10" si="22">Z8</f>
+        <f t="shared" ref="AA8:AA71" si="22">Z8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="28">
@@ -31137,7 +31137,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="27">
-        <f t="shared" ref="K13:K19" si="23">J13</f>
+        <f t="shared" ref="K13:K76" si="23">J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="28">
@@ -31149,7 +31149,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="27">
-        <f t="shared" ref="O13:O19" si="24">N13</f>
+        <f t="shared" ref="O13:O76" si="24">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="28">
@@ -31164,7 +31164,7 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="27">
-        <f t="shared" ref="S13:S19" si="25">R13</f>
+        <f t="shared" ref="S13:S76" si="25">R13</f>
         <v>0.5</v>
       </c>
       <c r="T13" s="28">
@@ -31179,7 +31179,7 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="27">
-        <f t="shared" ref="W13:W19" si="26">V13</f>
+        <f t="shared" ref="W13:W76" si="26">V13</f>
         <v>1.7</v>
       </c>
       <c r="X13" s="28">
@@ -31194,7 +31194,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="27">
-        <f t="shared" ref="AA13:AA19" si="27">Z13</f>
+        <f t="shared" ref="AA13:AA76" si="27">Z13</f>
         <v>1</v>
       </c>
       <c r="AB13" s="28">
@@ -31866,7 +31866,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="27">
-        <f t="shared" ref="K21:K23" si="28">J21</f>
+        <f t="shared" ref="K21:K84" si="28">J21</f>
         <v>0</v>
       </c>
       <c r="L21" s="28">
@@ -31878,7 +31878,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="27">
-        <f t="shared" ref="O21:O23" si="29">N21</f>
+        <f t="shared" ref="O21:O84" si="29">N21</f>
         <v>0</v>
       </c>
       <c r="P21" s="28">
@@ -31890,7 +31890,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" ref="S21:S23" si="30">R21</f>
+        <f t="shared" ref="S21:S84" si="30">R21</f>
         <v>0</v>
       </c>
       <c r="T21" s="28">
@@ -31905,7 +31905,7 @@
         <v>33.35</v>
       </c>
       <c r="W21" s="27">
-        <f t="shared" ref="W21:W23" si="31">V21</f>
+        <f t="shared" ref="W21:W84" si="31">V21</f>
         <v>33.35</v>
       </c>
       <c r="X21" s="28">
@@ -31917,7 +31917,7 @@
         <v>33.35</v>
       </c>
       <c r="AA21" s="27">
-        <f t="shared" ref="AA21:AA23" si="32">Z21</f>
+        <f t="shared" ref="AA21:AA84" si="32">Z21</f>
         <v>0</v>
       </c>
       <c r="AB21" s="28">
@@ -32300,7 +32300,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="27">
-        <f t="shared" ref="K26:K27" si="33">J26</f>
+        <f t="shared" ref="K26:K89" si="33">J26</f>
         <v>0</v>
       </c>
       <c r="L26" s="28">
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="27">
-        <f t="shared" ref="O26:O27" si="34">N26</f>
+        <f t="shared" ref="O26:O89" si="34">N26</f>
         <v>0</v>
       </c>
       <c r="P26" s="28">
@@ -32327,7 +32327,7 @@
         <v>3.5</v>
       </c>
       <c r="S26" s="27">
-        <f t="shared" ref="S26:S27" si="35">R26</f>
+        <f t="shared" ref="S26:S89" si="35">R26</f>
         <v>3.5</v>
       </c>
       <c r="T26" s="28">
@@ -32342,7 +32342,7 @@
         <v>11</v>
       </c>
       <c r="W26" s="27">
-        <f t="shared" ref="W26:W27" si="36">V26</f>
+        <f t="shared" ref="W26:W89" si="36">V26</f>
         <v>11</v>
       </c>
       <c r="X26" s="28">
@@ -32357,7 +32357,7 @@
         <v>12</v>
       </c>
       <c r="AA26" s="27">
-        <f t="shared" ref="AA26:AA27" si="37">Z26</f>
+        <f t="shared" ref="AA26:AA89" si="37">Z26</f>
         <v>12</v>
       </c>
       <c r="AB26" s="28">
@@ -32581,7 +32581,7 @@
         <v>9</v>
       </c>
       <c r="K29" s="27">
-        <f t="shared" ref="K29:K30" si="38">J29</f>
+        <f t="shared" ref="K29:K92" si="38">J29</f>
         <v>0</v>
       </c>
       <c r="L29" s="28">
@@ -32593,7 +32593,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="27">
-        <f t="shared" ref="O29:O30" si="39">N29</f>
+        <f t="shared" ref="O29:O92" si="39">N29</f>
         <v>0</v>
       </c>
       <c r="P29" s="28">
@@ -32608,7 +32608,7 @@
         <v>3.5</v>
       </c>
       <c r="S29" s="27">
-        <f t="shared" ref="S29:S30" si="40">R29</f>
+        <f t="shared" ref="S29:S92" si="40">R29</f>
         <v>3.5</v>
       </c>
       <c r="T29" s="28">
@@ -32623,7 +32623,7 @@
         <v>11</v>
       </c>
       <c r="W29" s="27">
-        <f t="shared" ref="W29:W30" si="41">V29</f>
+        <f t="shared" ref="W29:W92" si="41">V29</f>
         <v>11</v>
       </c>
       <c r="X29" s="28">
@@ -32638,7 +32638,7 @@
         <v>10</v>
       </c>
       <c r="AA29" s="27">
-        <f t="shared" ref="AA29:AA30" si="42">Z29</f>
+        <f t="shared" ref="AA29:AA92" si="42">Z29</f>
         <v>10</v>
       </c>
       <c r="AB29" s="28">
@@ -32865,7 +32865,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="27">
-        <f t="shared" ref="K32:K34" si="43">J32</f>
+        <f t="shared" ref="K32:K93" si="43">J32</f>
         <v>0</v>
       </c>
       <c r="L32" s="28">
@@ -32877,7 +32877,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="27">
-        <f t="shared" ref="O32:O34" si="44">N32</f>
+        <f t="shared" ref="O32:O93" si="44">N32</f>
         <v>0</v>
       </c>
       <c r="P32" s="28">
@@ -32892,7 +32892,7 @@
         <v>4</v>
       </c>
       <c r="S32" s="27">
-        <f t="shared" ref="S32:S34" si="45">R32</f>
+        <f t="shared" ref="S32:S93" si="45">R32</f>
         <v>4</v>
       </c>
       <c r="T32" s="28">
@@ -32907,7 +32907,7 @@
         <v>15</v>
       </c>
       <c r="W32" s="27">
-        <f t="shared" ref="W32:W34" si="46">V32</f>
+        <f t="shared" ref="W32:W93" si="46">V32</f>
         <v>15</v>
       </c>
       <c r="X32" s="28">
@@ -32919,7 +32919,7 @@
         <v>15</v>
       </c>
       <c r="AA32" s="27">
-        <f t="shared" ref="AA32:AA34" si="47">Z32</f>
+        <f t="shared" ref="AA32:AA93" si="47">Z32</f>
         <v>0</v>
       </c>
       <c r="AB32" s="28">
@@ -33269,7 +33269,7 @@
         <v>63.75</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" ref="M36:M49" si="48">L36</f>
+        <f t="shared" ref="M36:M93" si="48">L36</f>
         <v>63.75</v>
       </c>
       <c r="N36" s="26">
@@ -33284,7 +33284,7 @@
         <v>75</v>
       </c>
       <c r="Q36" s="14">
-        <f t="shared" ref="Q36:Q49" si="49">P36</f>
+        <f t="shared" ref="Q36:Q93" si="49">P36</f>
         <v>75</v>
       </c>
       <c r="R36" s="26">
@@ -33299,7 +33299,7 @@
         <v>67.5</v>
       </c>
       <c r="U36" s="14">
-        <f t="shared" ref="U36:U49" si="50">T36</f>
+        <f t="shared" ref="U36:U93" si="50">T36</f>
         <v>67.5</v>
       </c>
       <c r="V36" s="26">
@@ -33314,7 +33314,7 @@
         <v>63.75</v>
       </c>
       <c r="Y36" s="14">
-        <f t="shared" ref="Y36:Y49" si="51">X36</f>
+        <f t="shared" ref="Y36:Y93" si="51">X36</f>
         <v>63.75</v>
       </c>
       <c r="Z36" s="26">
@@ -33329,7 +33329,7 @@
         <v>67.5</v>
       </c>
       <c r="AC36" s="14">
-        <f t="shared" ref="AC36:AC49" si="52">AB36</f>
+        <f t="shared" ref="AC36:AC93" si="52">AB36</f>
         <v>67.5</v>
       </c>
     </row>
@@ -33362,11 +33362,11 @@
         <v>2</v>
       </c>
       <c r="K37" s="27">
-        <f t="shared" ref="K37" si="53">J37</f>
+        <f t="shared" ref="K37:K93" si="53">J37</f>
         <v>2</v>
       </c>
       <c r="L37" s="28">
-        <f t="shared" ref="L37" si="54">K37</f>
+        <f t="shared" ref="L37:L93" si="54">K37</f>
         <v>2</v>
       </c>
       <c r="M37" s="14">
@@ -33374,11 +33374,11 @@
         <v>2</v>
       </c>
       <c r="O37" s="27">
-        <f t="shared" ref="O37" si="55">N37</f>
+        <f t="shared" ref="O37:O93" si="55">N37</f>
         <v>0</v>
       </c>
       <c r="P37" s="28">
-        <f t="shared" ref="P37" si="56">O37</f>
+        <f t="shared" ref="P37:P93" si="56">O37</f>
         <v>0</v>
       </c>
       <c r="Q37" s="14">
@@ -33389,11 +33389,11 @@
         <v>1</v>
       </c>
       <c r="S37" s="27">
-        <f t="shared" ref="S37" si="57">R37</f>
+        <f t="shared" ref="S37:S93" si="57">R37</f>
         <v>1</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" ref="T37" si="58">S37</f>
+        <f t="shared" ref="T37:T93" si="58">S37</f>
         <v>1</v>
       </c>
       <c r="U37" s="14">
@@ -33401,11 +33401,11 @@
         <v>1</v>
       </c>
       <c r="W37" s="27">
-        <f t="shared" ref="W37" si="59">V37</f>
+        <f t="shared" ref="W37:W93" si="59">V37</f>
         <v>0</v>
       </c>
       <c r="X37" s="28">
-        <f t="shared" ref="X37" si="60">W37</f>
+        <f t="shared" ref="X37:X93" si="60">W37</f>
         <v>0</v>
       </c>
       <c r="Y37" s="14">
@@ -33413,11 +33413,11 @@
         <v>0</v>
       </c>
       <c r="AA37" s="27">
-        <f t="shared" ref="AA37" si="61">Z37</f>
+        <f t="shared" ref="AA37:AA93" si="61">Z37</f>
         <v>0</v>
       </c>
       <c r="AB37" s="28">
-        <f t="shared" ref="AB37" si="62">AA37</f>
+        <f t="shared" ref="AB37:AB93" si="62">AA37</f>
         <v>0</v>
       </c>
       <c r="AC37" s="14">
@@ -33643,11 +33643,11 @@
         <v>0.9</v>
       </c>
       <c r="K40" s="27">
-        <f t="shared" ref="K40:K47" si="63">J40</f>
+        <f t="shared" ref="K40:K93" si="63">J40</f>
         <v>0</v>
       </c>
       <c r="L40" s="28">
-        <f t="shared" ref="L40" si="64">K40</f>
+        <f t="shared" ref="L40:L93" si="64">K40</f>
         <v>0</v>
       </c>
       <c r="M40" s="14">
@@ -33658,11 +33658,11 @@
         <v>2</v>
       </c>
       <c r="O40" s="27">
-        <f t="shared" ref="O40:O47" si="65">N40</f>
+        <f t="shared" ref="O40:O93" si="65">N40</f>
         <v>2</v>
       </c>
       <c r="P40" s="28">
-        <f t="shared" ref="P40" si="66">O40</f>
+        <f t="shared" ref="P40:P93" si="66">O40</f>
         <v>2</v>
       </c>
       <c r="Q40" s="14">
@@ -33673,11 +33673,11 @@
         <v>1</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" ref="S40:S47" si="67">R40</f>
+        <f t="shared" ref="S40:S93" si="67">R40</f>
         <v>1</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" ref="T40" si="68">S40</f>
+        <f t="shared" ref="T40:T93" si="68">S40</f>
         <v>1</v>
       </c>
       <c r="U40" s="14">
@@ -33688,11 +33688,11 @@
         <v>2.5</v>
       </c>
       <c r="W40" s="27">
-        <f t="shared" ref="W40:W47" si="69">V40</f>
+        <f t="shared" ref="W40:W93" si="69">V40</f>
         <v>2.5</v>
       </c>
       <c r="X40" s="28">
-        <f t="shared" ref="X40" si="70">W40</f>
+        <f t="shared" ref="X40:X93" si="70">W40</f>
         <v>2.5</v>
       </c>
       <c r="Y40" s="14">
@@ -33703,11 +33703,11 @@
         <v>2</v>
       </c>
       <c r="AA40" s="27">
-        <f t="shared" ref="AA40:AA47" si="71">Z40</f>
+        <f t="shared" ref="AA40:AA93" si="71">Z40</f>
         <v>2</v>
       </c>
       <c r="AB40" s="28">
-        <f t="shared" ref="AB40" si="72">AA40</f>
+        <f t="shared" ref="AB40:AB93" si="72">AA40</f>
         <v>2</v>
       </c>
       <c r="AC40" s="14">
@@ -33945,7 +33945,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="28">
-        <f t="shared" ref="L43:L44" si="73">K43</f>
+        <f t="shared" ref="L43:L93" si="73">K43</f>
         <v>0</v>
       </c>
       <c r="M43" s="14">
@@ -33960,7 +33960,7 @@
         <v>85</v>
       </c>
       <c r="P43" s="28">
-        <f t="shared" ref="P43:P44" si="74">O43</f>
+        <f t="shared" ref="P43:P93" si="74">O43</f>
         <v>85</v>
       </c>
       <c r="Q43" s="14">
@@ -33975,7 +33975,7 @@
         <v>90</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" ref="T43:T44" si="75">S43</f>
+        <f t="shared" ref="T43:T93" si="75">S43</f>
         <v>90</v>
       </c>
       <c r="U43" s="14">
@@ -33990,7 +33990,7 @@
         <v>80</v>
       </c>
       <c r="X43" s="28">
-        <f t="shared" ref="X43:X44" si="76">W43</f>
+        <f t="shared" ref="X43:X93" si="76">W43</f>
         <v>80</v>
       </c>
       <c r="Y43" s="14">
@@ -34005,7 +34005,7 @@
         <v>60</v>
       </c>
       <c r="AB43" s="28">
-        <f t="shared" ref="AB43:AB44" si="77">AA43</f>
+        <f t="shared" ref="AB43:AB93" si="77">AA43</f>
         <v>60</v>
       </c>
       <c r="AC43" s="14">
@@ -34332,7 +34332,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="28">
-        <f t="shared" ref="L47:L49" si="78">K47</f>
+        <f t="shared" ref="L47:L93" si="78">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="14">
@@ -34347,7 +34347,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="28">
-        <f t="shared" ref="P47:P49" si="79">O47</f>
+        <f t="shared" ref="P47:P93" si="79">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="14">
@@ -34362,7 +34362,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="28">
-        <f t="shared" ref="T47:T49" si="80">S47</f>
+        <f t="shared" ref="T47:T93" si="80">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="14">
@@ -34374,7 +34374,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="28">
-        <f t="shared" ref="X47:X49" si="81">W47</f>
+        <f t="shared" ref="X47:X93" si="81">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="14">
@@ -34389,7 +34389,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="28">
-        <f t="shared" ref="AB47:AB49" si="82">AA47</f>
+        <f t="shared" ref="AB47:AB93" si="82">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="14">
@@ -35251,7 +35251,7 @@
         <v>20</v>
       </c>
       <c r="K56" s="27">
-        <f t="shared" ref="K56:K79" si="95">J56</f>
+        <f t="shared" ref="K56:K93" si="95">J56</f>
         <v>0</v>
       </c>
       <c r="L56" s="13">
@@ -35263,7 +35263,7 @@
         <v>1.875</v>
       </c>
       <c r="O56" s="27">
-        <f t="shared" ref="O56:O79" si="96">N56</f>
+        <f t="shared" ref="O56:O93" si="96">N56</f>
         <v>0</v>
       </c>
       <c r="P56" s="13">
@@ -35278,7 +35278,7 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="27">
-        <f t="shared" ref="S56:S79" si="97">R56</f>
+        <f t="shared" ref="S56:S93" si="97">R56</f>
         <v>0.5</v>
       </c>
       <c r="T56" s="13">
@@ -35293,7 +35293,7 @@
         <v>0.75</v>
       </c>
       <c r="W56" s="27">
-        <f t="shared" ref="W56:W79" si="98">V56</f>
+        <f t="shared" ref="W56:W93" si="98">V56</f>
         <v>0.75</v>
       </c>
       <c r="X56" s="13">
@@ -35305,7 +35305,7 @@
         <v>1.5</v>
       </c>
       <c r="AA56" s="27">
-        <f t="shared" ref="AA56:AA79" si="99">Z56</f>
+        <f t="shared" ref="AA56:AA93" si="99">Z56</f>
         <v>0</v>
       </c>
       <c r="AB56" s="13">
@@ -35539,11 +35539,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="28">
-        <f t="shared" ref="L59:L85" si="100">K59</f>
+        <f t="shared" ref="L59:L93" si="100">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" ref="M59:M79" si="101">L59</f>
+        <f t="shared" ref="M59:M93" si="101">L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="27">
@@ -35551,11 +35551,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="28">
-        <f t="shared" ref="P59:P85" si="102">O59</f>
+        <f t="shared" ref="P59:P93" si="102">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="14">
-        <f t="shared" ref="Q59:Q79" si="103">P59</f>
+        <f t="shared" ref="Q59:Q93" si="103">P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="26">
@@ -35566,11 +35566,11 @@
         <v>3.5</v>
       </c>
       <c r="T59" s="28">
-        <f t="shared" ref="T59:T85" si="104">S59</f>
+        <f t="shared" ref="T59:T93" si="104">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="14">
-        <f t="shared" ref="U59:U79" si="105">T59</f>
+        <f t="shared" ref="U59:U93" si="105">T59</f>
         <v>3.5</v>
       </c>
       <c r="W59" s="27">
@@ -35578,11 +35578,11 @@
         <v>0</v>
       </c>
       <c r="X59" s="28">
-        <f t="shared" ref="X59:X85" si="106">W59</f>
+        <f t="shared" ref="X59:X93" si="106">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="14">
-        <f t="shared" ref="Y59:Y79" si="107">X59</f>
+        <f t="shared" ref="Y59:Y93" si="107">X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="27">
@@ -35590,11 +35590,11 @@
         <v>0</v>
       </c>
       <c r="AB59" s="28">
-        <f t="shared" ref="AB59:AB85" si="108">AA59</f>
+        <f t="shared" ref="AB59:AB93" si="108">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="14">
-        <f t="shared" ref="AC59:AC79" si="109">AB59</f>
+        <f t="shared" ref="AC59:AC93" si="109">AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -50295,15 +50295,15 @@
       </c>
       <c r="W48">
         <f>'41_Wind_LowSeverity'!O48</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <f>'41_Wind_LowSeverity'!P48</f>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <f>'41_Wind_LowSeverity'!Q48</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <f>'42_Wind_ModSeverity'!O48</f>
@@ -50335,15 +50335,15 @@
       </c>
       <c r="AG48">
         <f>'41_Wind_LowSeverity'!S48</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AH48">
         <f>'41_Wind_LowSeverity'!T48</f>
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="AI48">
         <f>'41_Wind_LowSeverity'!U48</f>
-        <v>0.1875</v>
+        <v>0.1171875</v>
       </c>
       <c r="AJ48">
         <f>'42_Wind_ModSeverity'!S48</f>
@@ -50415,15 +50415,15 @@
       </c>
       <c r="BA48">
         <f>'41_Wind_LowSeverity'!AA48</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="BB48">
         <f>'41_Wind_LowSeverity'!AB48</f>
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="BC48">
         <f>'41_Wind_LowSeverity'!AC48</f>
-        <v>0.1875</v>
+        <v>0.1171875</v>
       </c>
       <c r="BD48">
         <f>'42_Wind_ModSeverity'!AA48</f>
@@ -50541,15 +50541,15 @@
       </c>
       <c r="W49">
         <f>'41_Wind_LowSeverity'!O49</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X49">
         <f>'41_Wind_LowSeverity'!P49</f>
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <f>'41_Wind_LowSeverity'!Q49</f>
-        <v>4.6875</v>
+        <v>0</v>
       </c>
       <c r="Z49">
         <f>'42_Wind_ModSeverity'!O49</f>
@@ -50661,15 +50661,15 @@
       </c>
       <c r="BA49">
         <f>'41_Wind_LowSeverity'!AA49</f>
-        <v>25</v>
+        <v>18.75</v>
       </c>
       <c r="BB49">
         <f>'41_Wind_LowSeverity'!AB49</f>
-        <v>18.75</v>
+        <v>14.0625</v>
       </c>
       <c r="BC49">
         <f>'41_Wind_LowSeverity'!AC49</f>
-        <v>4.6875</v>
+        <v>3.515625</v>
       </c>
       <c r="BD49">
         <f>'42_Wind_ModSeverity'!AA49</f>
@@ -59563,7 +59563,7 @@
       </c>
       <c r="C86">
         <f>'41_Wind_LowSeverity'!G86</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D86">
         <f>'41_Wind_LowSeverity'!H86</f>
@@ -59603,7 +59603,7 @@
       </c>
       <c r="M86">
         <f>'41_Wind_LowSeverity'!K86</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N86">
         <f>'41_Wind_LowSeverity'!L86</f>
@@ -59643,7 +59643,7 @@
       </c>
       <c r="W86">
         <f>'41_Wind_LowSeverity'!O86</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X86">
         <f>'41_Wind_LowSeverity'!P86</f>
@@ -59683,7 +59683,7 @@
       </c>
       <c r="AG86">
         <f>'41_Wind_LowSeverity'!S86</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH86">
         <f>'41_Wind_LowSeverity'!T86</f>
@@ -59723,7 +59723,7 @@
       </c>
       <c r="AQ86">
         <f>'41_Wind_LowSeverity'!W86</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <f>'41_Wind_LowSeverity'!X86</f>
@@ -59763,7 +59763,7 @@
       </c>
       <c r="BA86">
         <f>'41_Wind_LowSeverity'!AA86</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BB86">
         <f>'41_Wind_LowSeverity'!AB86</f>
@@ -59809,7 +59809,7 @@
       </c>
       <c r="C87">
         <f>'41_Wind_LowSeverity'!G87</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D87">
         <f>'41_Wind_LowSeverity'!H87</f>
@@ -59849,7 +59849,7 @@
       </c>
       <c r="M87">
         <f>'41_Wind_LowSeverity'!K87</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N87">
         <f>'41_Wind_LowSeverity'!L87</f>
@@ -59889,7 +59889,7 @@
       </c>
       <c r="W87">
         <f>'41_Wind_LowSeverity'!O87</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="X87">
         <f>'41_Wind_LowSeverity'!P87</f>
@@ -59929,15 +59929,15 @@
       </c>
       <c r="AG87">
         <f>'41_Wind_LowSeverity'!S87</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AH87">
         <f>'41_Wind_LowSeverity'!T87</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="AI87">
         <f>'41_Wind_LowSeverity'!U87</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="AJ87">
         <f>'42_Wind_ModSeverity'!S87</f>
@@ -59969,15 +59969,15 @@
       </c>
       <c r="AQ87">
         <f>'41_Wind_LowSeverity'!W87</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AR87">
         <f>'41_Wind_LowSeverity'!X87</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="AS87">
         <f>'41_Wind_LowSeverity'!Y87</f>
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="AT87">
         <f>'42_Wind_ModSeverity'!W87</f>
@@ -60009,7 +60009,7 @@
       </c>
       <c r="BA87">
         <f>'41_Wind_LowSeverity'!AA87</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BB87">
         <f>'41_Wind_LowSeverity'!AB87</f>

--- a/specifications/4_Wind/ScriptRules_Wind.xlsx
+++ b/specifications/4_Wind/ScriptRules_Wind.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -7428,8 +7428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="450" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18708,7 +18709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
@@ -24256,7 +24257,7 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="39">
-        <f t="shared" ref="G57:G79" si="52">F59</f>
+        <f t="shared" ref="G59:G79" si="52">F59</f>
         <v>9.6</v>
       </c>
       <c r="H59" s="28">
@@ -24268,7 +24269,7 @@
         <v>9.6</v>
       </c>
       <c r="K59" s="39">
-        <f t="shared" ref="K59:K81" si="53">J59</f>
+        <f t="shared" ref="K59:K79" si="53">J59</f>
         <v>0</v>
       </c>
       <c r="L59" s="28">
@@ -24280,7 +24281,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="39">
-        <f t="shared" ref="O59:O81" si="56">N59</f>
+        <f t="shared" ref="O59:O79" si="56">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="28">
@@ -24295,7 +24296,7 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="39">
-        <f t="shared" ref="S59:S81" si="59">R59</f>
+        <f t="shared" ref="S59:S79" si="59">R59</f>
         <v>3.5</v>
       </c>
       <c r="T59" s="28">
@@ -24307,7 +24308,7 @@
         <v>3.5</v>
       </c>
       <c r="W59" s="39">
-        <f t="shared" ref="W59:W81" si="62">V59</f>
+        <f t="shared" ref="W59:W79" si="62">V59</f>
         <v>0</v>
       </c>
       <c r="X59" s="28">
@@ -24319,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="39">
-        <f t="shared" ref="AA59:AA81" si="65">Z59</f>
+        <f t="shared" ref="AA59:AA79" si="65">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="28">
@@ -29989,10 +29990,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF951"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomLeft" activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/specifications/4_Wind/ScriptRules_Wind.xlsx
+++ b/specifications/4_Wind/ScriptRules_Wind.xlsx
@@ -7431,7 +7431,7 @@
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12380,22 +12380,22 @@
         <v>6</v>
       </c>
       <c r="G53" s="10">
-        <f>IF(OR(F3&gt;3,F8&gt;3),F53,$C53*F53)</f>
-        <v>6</v>
+        <f>IF(OR(F3&gt;3,F8&gt;3),$C53*F53,F53)</f>
+        <v>12</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="35"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="I53" s="36">
         <f t="shared" si="36"/>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="K53" s="10">
-        <f>IF(OR(J3&gt;3,J8&gt;3),J53,$C53*J53)</f>
+        <f>IF(OR(J3&gt;3,J8&gt;3),$C53*J53,J53)</f>
         <v>0</v>
       </c>
       <c r="L53" s="13">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="10">
-        <f>IF(OR(N3&gt;3,N8&gt;3),N53,$C53*N53)</f>
+        <f>IF(OR(N3&gt;3,N8&gt;3),$C53*N53,N53)</f>
         <v>0</v>
       </c>
       <c r="P53" s="13">
@@ -12422,46 +12422,46 @@
         <v>1</v>
       </c>
       <c r="S53" s="10">
-        <f>IF(OR(R3&gt;3,R8&gt;3),R53,$C53*R53)</f>
-        <v>2</v>
+        <f>IF(OR(R3&gt;3,R8&gt;3),$C53*R53,R53)</f>
+        <v>1</v>
       </c>
       <c r="T53" s="13">
         <f t="shared" si="41"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="U53" s="36">
         <f t="shared" si="42"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="V53" s="9">
         <v>1.2</v>
       </c>
       <c r="W53" s="10">
-        <f>IF(OR(V3&gt;3,V8&gt;3),V53,$C53*V53)</f>
-        <v>1.2</v>
+        <f>IF(OR(V3&gt;3,V8&gt;3),$C53*V53,V53)</f>
+        <v>2.4</v>
       </c>
       <c r="X53" s="13">
         <f t="shared" si="43"/>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="Y53" s="36">
         <f t="shared" si="44"/>
-        <v>0.44999999999999996</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="Z53" s="9">
         <v>0.5</v>
       </c>
       <c r="AA53" s="10">
-        <f>IF(OR(Z3&gt;3,Z8&gt;3),Z53,$C53*Z53)</f>
-        <v>0.5</v>
+        <f>IF(OR(Z3&gt;3,Z8&gt;3),$C53*Z53,Z53)</f>
+        <v>1</v>
       </c>
       <c r="AB53" s="13">
         <f t="shared" si="45"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AC53" s="36">
         <f t="shared" si="46"/>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12484,22 +12484,22 @@
         <v>12</v>
       </c>
       <c r="G54" s="10">
-        <f>IF(OR(F4&gt;9,F9&gt;9),F54,$C54*F54)</f>
-        <v>12</v>
+        <f>IF(OR(F4&gt;9,F9&gt;9),$C54*F54,F54)</f>
+        <v>24</v>
       </c>
       <c r="H54" s="13">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I54" s="36">
         <f t="shared" si="36"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="J54" s="9">
         <v>0</v>
       </c>
       <c r="K54" s="10">
-        <f>IF(OR(J4&gt;9,J9&gt;9),J54,$C54*J54)</f>
+        <f>IF(OR(J4&gt;9,J9&gt;9),$C54*J54,J54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="13">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="10">
-        <f>IF(OR(N4&gt;9,N9&gt;9),N54,$C54*N54)</f>
+        <f>IF(OR(N4&gt;9,N9&gt;9),$C54*N54,N54)</f>
         <v>0</v>
       </c>
       <c r="P54" s="13">
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="10">
-        <f>IF(OR(R4&gt;9,R9&gt;9),R54,$C54*R54)</f>
+        <f>IF(OR(R4&gt;9,R9&gt;9),$C54*R54,R54)</f>
         <v>0</v>
       </c>
       <c r="T54" s="13">
@@ -12541,22 +12541,22 @@
         <v>0.5</v>
       </c>
       <c r="W54" s="10">
-        <f>IF(OR(V4&gt;9,V9&gt;9),V54,$C54*V54)</f>
-        <v>0.5</v>
+        <f>IF(OR(V4&gt;9,V9&gt;9),$C54*V54,V54)</f>
+        <v>1</v>
       </c>
       <c r="X54" s="13">
         <f t="shared" si="43"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="Y54" s="36">
         <f t="shared" si="44"/>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="Z54" s="9">
         <v>0</v>
       </c>
       <c r="AA54" s="10">
-        <f>IF(OR(Z4&gt;9,Z9&gt;9),Z54,$C54*Z54)</f>
+        <f>IF(OR(Z4&gt;9,Z9&gt;9),$C54*Z54,Z54)</f>
         <v>0</v>
       </c>
       <c r="AB54" s="13">
@@ -12588,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="10">
-        <f>IF(OR(F5&gt;20,F10&gt;20),F55,$C55*F55)</f>
+        <f>IF(OR(F5&gt;20,F10&gt;20),$C55*F55, F55)</f>
         <v>0</v>
       </c>
       <c r="H55" s="13">
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="10">
-        <f>IF(OR(J5&gt;20,J10&gt;20),J55,$C55*J55)</f>
+        <f>IF(OR(J5&gt;20,J10&gt;20),$C55*J55, J55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="13">
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="10">
-        <f>IF(OR(N5&gt;20,N10&gt;20),N55,$C55*N55)</f>
+        <f>IF(OR(N5&gt;20,N10&gt;20),$C55*N55, N55)</f>
         <v>0</v>
       </c>
       <c r="P55" s="13">
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="10">
-        <f>IF(OR(R5&gt;20,R10&gt;20),R55,$C55*R55)</f>
+        <f>IF(OR(R5&gt;20,R10&gt;20),$C55*R55, R55)</f>
         <v>0</v>
       </c>
       <c r="T55" s="13">
@@ -12645,22 +12645,22 @@
         <v>0.5</v>
       </c>
       <c r="W55" s="10">
-        <f>IF(OR(V5&gt;20,V10&gt;20),V55,$C55*V55)</f>
-        <v>0.5</v>
+        <f>IF(OR(V5&gt;20,V10&gt;20),$C55*V55, V55)</f>
+        <v>1</v>
       </c>
       <c r="X55" s="13">
         <f t="shared" si="43"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="Y55" s="36">
         <f t="shared" si="44"/>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="Z55" s="9">
         <v>0</v>
       </c>
       <c r="AA55" s="10">
-        <f>IF(OR(Z5&gt;20,Z10&gt;20),Z55,$C55*Z55)</f>
+        <f>IF(OR(Z5&gt;20,Z10&gt;20),$C55*Z55, Z55)</f>
         <v>0</v>
       </c>
       <c r="AB55" s="13">
@@ -12695,11 +12695,11 @@
       </c>
       <c r="H56" s="13">
         <f>G56+($D56*G53)</f>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="I56" s="14">
         <f>H56+(H53*$E56)</f>
-        <v>8.75</v>
+        <v>12.5</v>
       </c>
       <c r="K56" s="10">
         <f t="shared" ref="K56:K79" si="48">J56</f>
@@ -12734,11 +12734,11 @@
       </c>
       <c r="T56" s="13">
         <f>S56+($D56*S53)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="U56" s="14">
         <f>T56+(T53*$E56)</f>
-        <v>1.75</v>
+        <v>1.125</v>
       </c>
       <c r="V56" s="9">
         <v>0.75</v>
@@ -12749,11 +12749,11 @@
       </c>
       <c r="X56" s="13">
         <f>W56+($D56*W53)</f>
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="Y56" s="14">
         <f>X56+(X53*$E56)</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA56" s="10">
         <f t="shared" ref="AA56:AA79" si="52">Z56</f>
@@ -12761,11 +12761,11 @@
       </c>
       <c r="AB56" s="13">
         <f>AA56+($D56*AA53)</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AC56" s="14">
         <f>AB56+(AB53*$E56)</f>
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="57" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -12791,11 +12791,11 @@
       </c>
       <c r="H57" s="13">
         <f>G57+($D57*G54)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I57" s="14">
         <f>H57+(H54*$E57)</f>
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="K57" s="10">
         <f t="shared" si="48"/>
@@ -12845,11 +12845,11 @@
       </c>
       <c r="X57" s="13">
         <f>W57+($D57*W54)</f>
-        <v>0.42499999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y57" s="14">
         <f>X57+(X54*$E57)</f>
-        <v>0.61250000000000004</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AA57" s="10">
         <f t="shared" si="52"/>
@@ -12941,11 +12941,11 @@
       </c>
       <c r="X58" s="13">
         <f>W58+($D58*W55)</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="Y58" s="14">
         <f>X58+(X55*$E58)</f>
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="AA58" s="10">
         <f t="shared" si="52"/>
@@ -18710,8 +18710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF951"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19084,7 +19084,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" ref="P4:P67" si="3">O4</f>
+        <f t="shared" ref="P4:P34" si="3">O4</f>
         <v>0</v>
       </c>
       <c r="R4" s="39">
@@ -19096,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" ref="T4:T67" si="5">S4</f>
+        <f t="shared" ref="T4:T34" si="5">S4</f>
         <v>0</v>
       </c>
       <c r="U4" s="9">
@@ -19111,7 +19111,7 @@
         <v>4</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" ref="X4:X67" si="7">W4</f>
+        <f t="shared" ref="X4:X34" si="7">W4</f>
         <v>4</v>
       </c>
       <c r="Y4" s="9">
@@ -19126,7 +19126,7 @@
         <v>20</v>
       </c>
       <c r="AB4" s="16">
-        <f t="shared" ref="AB4:AB67" si="9">AA4</f>
+        <f t="shared" ref="AB4:AB34" si="9">AA4</f>
         <v>20</v>
       </c>
       <c r="AC4" s="9">
@@ -19141,7 +19141,7 @@
         <v>55</v>
       </c>
       <c r="AF4" s="16">
-        <f t="shared" ref="AF4:AF67" si="11">AE4</f>
+        <f t="shared" ref="AF4:AF34" si="11">AE4</f>
         <v>55</v>
       </c>
     </row>
@@ -22147,7 +22147,7 @@
         <v>77.349999999999994</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" ref="P36:P93" si="18">O36</f>
+        <f t="shared" ref="P36:P37" si="18">O36</f>
         <v>77.349999999999994</v>
       </c>
       <c r="Q36" s="9">
@@ -22162,7 +22162,7 @@
         <v>91</v>
       </c>
       <c r="T36" s="16">
-        <f t="shared" ref="T36:T93" si="19">S36</f>
+        <f t="shared" ref="T36:T37" si="19">S36</f>
         <v>91</v>
       </c>
       <c r="U36" s="9">
@@ -22177,7 +22177,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="X36" s="16">
-        <f t="shared" ref="X36:X93" si="20">W36</f>
+        <f t="shared" ref="X36:X37" si="20">W36</f>
         <v>81.899999999999991</v>
       </c>
       <c r="Y36" s="9">
@@ -22192,7 +22192,7 @@
         <v>77.349999999999994</v>
       </c>
       <c r="AB36" s="16">
-        <f t="shared" ref="AB36:AB93" si="21">AA36</f>
+        <f t="shared" ref="AB36:AB37" si="21">AA36</f>
         <v>77.349999999999994</v>
       </c>
       <c r="AC36" s="9">
@@ -22207,7 +22207,7 @@
         <v>81.899999999999991</v>
       </c>
       <c r="AF36" s="16">
-        <f t="shared" ref="AF36:AF93" si="22">AE36</f>
+        <f t="shared" ref="AF36:AF37" si="22">AE36</f>
         <v>81.899999999999991</v>
       </c>
     </row>
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="44">
-        <f t="shared" ref="P40:P93" si="23">O40</f>
+        <f t="shared" ref="P40:P47" si="23">O40</f>
         <v>0</v>
       </c>
       <c r="Q40" s="9">
@@ -22572,7 +22572,7 @@
         <v>2</v>
       </c>
       <c r="T40" s="44">
-        <f t="shared" ref="T40:T93" si="24">S40</f>
+        <f t="shared" ref="T40:T47" si="24">S40</f>
         <v>2</v>
       </c>
       <c r="U40" s="9">
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="X40" s="44">
-        <f t="shared" ref="X40:X93" si="25">W40</f>
+        <f t="shared" ref="X40:X47" si="25">W40</f>
         <v>1</v>
       </c>
       <c r="Y40" s="9">
@@ -22602,7 +22602,7 @@
         <v>2.5</v>
       </c>
       <c r="AB40" s="44">
-        <f t="shared" ref="AB40:AB93" si="26">AA40</f>
+        <f t="shared" ref="AB40:AB47" si="26">AA40</f>
         <v>2.5</v>
       </c>
       <c r="AC40" s="9">
@@ -22617,7 +22617,7 @@
         <v>2</v>
       </c>
       <c r="AF40" s="44">
-        <f t="shared" ref="AF40:AF93" si="27">AE40</f>
+        <f t="shared" ref="AF40:AF47" si="27">AE40</f>
         <v>2</v>
       </c>
     </row>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="40">
-        <f t="shared" ref="O47:O93" si="35">N47</f>
+        <f t="shared" ref="O47" si="35">N47</f>
         <v>0</v>
       </c>
       <c r="P47" s="16">
@@ -23282,7 +23282,7 @@
         <v>70</v>
       </c>
       <c r="S47" s="40">
-        <f t="shared" ref="S47:S93" si="36">R47</f>
+        <f t="shared" ref="S47" si="36">R47</f>
         <v>70</v>
       </c>
       <c r="T47" s="16">
@@ -23297,7 +23297,7 @@
         <v>90</v>
       </c>
       <c r="W47" s="40">
-        <f t="shared" ref="W47:W93" si="37">V47</f>
+        <f t="shared" ref="W47" si="37">V47</f>
         <v>90</v>
       </c>
       <c r="X47" s="16">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="40">
-        <f t="shared" ref="AA47:AA93" si="38">Z47</f>
+        <f t="shared" ref="AA47" si="38">Z47</f>
         <v>0</v>
       </c>
       <c r="AB47" s="16">
@@ -23324,7 +23324,7 @@
         <v>60</v>
       </c>
       <c r="AE47" s="40">
-        <f t="shared" ref="AE47:AE93" si="39">AD47</f>
+        <f t="shared" ref="AE47" si="39">AD47</f>
         <v>60</v>
       </c>
       <c r="AF47" s="16">
@@ -24562,11 +24562,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="28">
-        <f t="shared" ref="O59:O93" si="54">N59</f>
+        <f t="shared" ref="O59:O85" si="54">N59</f>
         <v>0</v>
       </c>
       <c r="P59" s="16">
-        <f t="shared" ref="P59:P93" si="55">O59</f>
+        <f t="shared" ref="P59:P79" si="55">O59</f>
         <v>0</v>
       </c>
       <c r="R59" s="39">
@@ -24574,11 +24574,11 @@
         <v>0</v>
       </c>
       <c r="S59" s="28">
-        <f t="shared" ref="S59:S93" si="57">R59</f>
+        <f t="shared" ref="S59:S85" si="57">R59</f>
         <v>0</v>
       </c>
       <c r="T59" s="16">
-        <f t="shared" ref="T59:T93" si="58">S59</f>
+        <f t="shared" ref="T59:T79" si="58">S59</f>
         <v>0</v>
       </c>
       <c r="U59" s="9">
@@ -24589,11 +24589,11 @@
         <v>3.5</v>
       </c>
       <c r="W59" s="28">
-        <f t="shared" ref="W59:W93" si="60">V59</f>
+        <f t="shared" ref="W59:W85" si="60">V59</f>
         <v>3.5</v>
       </c>
       <c r="X59" s="16">
-        <f t="shared" ref="X59:X93" si="61">W59</f>
+        <f t="shared" ref="X59:X79" si="61">W59</f>
         <v>3.5</v>
       </c>
       <c r="Z59" s="39">
@@ -24601,11 +24601,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="28">
-        <f t="shared" ref="AA59:AA93" si="63">Z59</f>
+        <f t="shared" ref="AA59:AA85" si="63">Z59</f>
         <v>0</v>
       </c>
       <c r="AB59" s="16">
-        <f t="shared" ref="AB59:AB93" si="64">AA59</f>
+        <f t="shared" ref="AB59:AB79" si="64">AA59</f>
         <v>0</v>
       </c>
       <c r="AD59" s="39">
@@ -24613,11 +24613,11 @@
         <v>0</v>
       </c>
       <c r="AE59" s="28">
-        <f t="shared" ref="AE59:AE93" si="66">AD59</f>
+        <f t="shared" ref="AE59:AE85" si="66">AD59</f>
         <v>0</v>
       </c>
       <c r="AF59" s="16">
-        <f t="shared" ref="AF59:AF93" si="67">AE59</f>
+        <f t="shared" ref="AF59:AF79" si="67">AE59</f>
         <v>0</v>
       </c>
     </row>
@@ -54424,15 +54424,15 @@
       </c>
       <c r="C53">
         <f>'41_Wind_LowSeverity'!G53</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <f>'41_Wind_LowSeverity'!H53</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <f>'41_Wind_LowSeverity'!I53</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="F53">
         <f>'42_Wind_ModSeverity'!J53</f>
@@ -54544,15 +54544,15 @@
       </c>
       <c r="AG53">
         <f>'41_Wind_LowSeverity'!S53</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH53">
         <f>'41_Wind_LowSeverity'!T53</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AI53">
         <f>'41_Wind_LowSeverity'!U53</f>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AJ53">
         <f>'42_Wind_ModSeverity'!V53</f>
@@ -54584,15 +54584,15 @@
       </c>
       <c r="AQ53">
         <f>'41_Wind_LowSeverity'!W53</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AR53">
         <f>'41_Wind_LowSeverity'!X53</f>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="AS53">
         <f>'41_Wind_LowSeverity'!Y53</f>
-        <v>0.44999999999999996</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="AT53">
         <f>'42_Wind_ModSeverity'!Z53</f>
@@ -54624,15 +54624,15 @@
       </c>
       <c r="BA53">
         <f>'41_Wind_LowSeverity'!AA53</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BB53">
         <f>'41_Wind_LowSeverity'!AB53</f>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="BC53">
         <f>'41_Wind_LowSeverity'!AC53</f>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="BD53">
         <f>'42_Wind_ModSeverity'!AD53</f>
@@ -54670,15 +54670,15 @@
       </c>
       <c r="C54">
         <f>'41_Wind_LowSeverity'!G54</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <f>'41_Wind_LowSeverity'!H54</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <f>'41_Wind_LowSeverity'!I54</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <f>'42_Wind_ModSeverity'!J54</f>
@@ -54830,15 +54830,15 @@
       </c>
       <c r="AQ54">
         <f>'41_Wind_LowSeverity'!W54</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <f>'41_Wind_LowSeverity'!X54</f>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AS54">
         <f>'41_Wind_LowSeverity'!Y54</f>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="AT54">
         <f>'42_Wind_ModSeverity'!Z54</f>
@@ -55076,15 +55076,15 @@
       </c>
       <c r="AQ55">
         <f>'41_Wind_LowSeverity'!W55</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <f>'41_Wind_LowSeverity'!X55</f>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AS55">
         <f>'41_Wind_LowSeverity'!Y55</f>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="AT55">
         <f>'42_Wind_ModSeverity'!Z55</f>
@@ -55166,11 +55166,11 @@
       </c>
       <c r="D56">
         <f>'41_Wind_LowSeverity'!H56</f>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E56">
         <f>'41_Wind_LowSeverity'!I56</f>
-        <v>8.75</v>
+        <v>12.5</v>
       </c>
       <c r="F56">
         <f>'42_Wind_ModSeverity'!J56</f>
@@ -55286,11 +55286,11 @@
       </c>
       <c r="AH56">
         <f>'41_Wind_LowSeverity'!T56</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AI56">
         <f>'41_Wind_LowSeverity'!U56</f>
-        <v>1.75</v>
+        <v>1.125</v>
       </c>
       <c r="AJ56">
         <f>'42_Wind_ModSeverity'!V56</f>
@@ -55326,11 +55326,11 @@
       </c>
       <c r="AR56">
         <f>'41_Wind_LowSeverity'!X56</f>
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AS56">
         <f>'41_Wind_LowSeverity'!Y56</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AT56">
         <f>'42_Wind_ModSeverity'!Z56</f>
@@ -55366,11 +55366,11 @@
       </c>
       <c r="BB56">
         <f>'41_Wind_LowSeverity'!AB56</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="BC56">
         <f>'41_Wind_LowSeverity'!AC56</f>
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="BD56">
         <f>'42_Wind_ModSeverity'!AD56</f>
@@ -55412,11 +55412,11 @@
       </c>
       <c r="D57">
         <f>'41_Wind_LowSeverity'!H57</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <f>'41_Wind_LowSeverity'!I57</f>
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="F57">
         <f>'42_Wind_ModSeverity'!J57</f>
@@ -55572,11 +55572,11 @@
       </c>
       <c r="AR57">
         <f>'41_Wind_LowSeverity'!X57</f>
-        <v>0.42499999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AS57">
         <f>'41_Wind_LowSeverity'!Y57</f>
-        <v>0.61250000000000004</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="AT57">
         <f>'42_Wind_ModSeverity'!Z57</f>
@@ -55818,11 +55818,11 @@
       </c>
       <c r="AR58">
         <f>'41_Wind_LowSeverity'!X58</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="AS58">
         <f>'41_Wind_LowSeverity'!Y58</f>
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="AT58">
         <f>'42_Wind_ModSeverity'!Z58</f>

--- a/specifications/4_Wind/ScriptRules_Wind.xlsx
+++ b/specifications/4_Wind/ScriptRules_Wind.xlsx
@@ -7428,10 +7428,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:E1048576"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12484,7 +12484,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="10">
-        <f>IF(OR(F4&gt;9,F9&gt;9),$C54*F54,F54)</f>
+        <f>IF(OR(F3&gt;9,F8&gt;9),$C54*F54,F54)</f>
         <v>24</v>
       </c>
       <c r="H54" s="13">
@@ -12499,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="10">
-        <f>IF(OR(J4&gt;9,J9&gt;9),$C54*J54,J54)</f>
+        <f>IF(OR(J3&gt;9,J8&gt;9),$C54*J54,J54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="13">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="10">
-        <f>IF(OR(N4&gt;9,N9&gt;9),$C54*N54,N54)</f>
+        <f>IF(OR(N3&gt;9,N8&gt;9),$C54*N54,N54)</f>
         <v>0</v>
       </c>
       <c r="P54" s="13">
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="10">
-        <f>IF(OR(R4&gt;9,R9&gt;9),$C54*R54,R54)</f>
+        <f>IF(OR(R3&gt;9,R8&gt;9),$C54*R54,R54)</f>
         <v>0</v>
       </c>
       <c r="T54" s="13">
@@ -12541,7 +12541,7 @@
         <v>0.5</v>
       </c>
       <c r="W54" s="10">
-        <f>IF(OR(V4&gt;9,V9&gt;9),$C54*V54,V54)</f>
+        <f>IF(OR(V3&gt;9,V8&gt;9),$C54*V54,V54)</f>
         <v>1</v>
       </c>
       <c r="X54" s="13">
@@ -12556,7 +12556,7 @@
         <v>0</v>
       </c>
       <c r="AA54" s="10">
-        <f>IF(OR(Z4&gt;9,Z9&gt;9),$C54*Z54,Z54)</f>
+        <f>IF(OR(Z3&gt;9,Z8&gt;9),$C54*Z54,Z54)</f>
         <v>0</v>
       </c>
       <c r="AB54" s="13">
@@ -12588,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="10">
-        <f>IF(OR(F5&gt;20,F10&gt;20),$C55*F55, F55)</f>
+        <f>IF(OR(F3&gt;20,F8&gt;20),$C55*F55,F55)</f>
         <v>0</v>
       </c>
       <c r="H55" s="13">
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="10">
-        <f>IF(OR(J5&gt;20,J10&gt;20),$C55*J55, J55)</f>
+        <f>IF(OR(J3&gt;20,J8&gt;20),$C55*J55,J55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="13">
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="10">
-        <f>IF(OR(N5&gt;20,N10&gt;20),$C55*N55, N55)</f>
+        <f>IF(OR(N3&gt;20,N8&gt;20),$C55*N55,N55)</f>
         <v>0</v>
       </c>
       <c r="P55" s="13">
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="10">
-        <f>IF(OR(R5&gt;20,R10&gt;20),$C55*R55, R55)</f>
+        <f>IF(OR(R3&gt;20,R8&gt;20),$C55*R55,R55)</f>
         <v>0</v>
       </c>
       <c r="T55" s="13">
@@ -12645,22 +12645,22 @@
         <v>0.5</v>
       </c>
       <c r="W55" s="10">
-        <f>IF(OR(V5&gt;20,V10&gt;20),$C55*V55, V55)</f>
-        <v>1</v>
+        <f>IF(OR(V3&gt;20,V8&gt;20),$C55*V55,V55)</f>
+        <v>0.5</v>
       </c>
       <c r="X55" s="13">
         <f t="shared" si="43"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="Y55" s="36">
         <f t="shared" si="44"/>
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="Z55" s="9">
         <v>0</v>
       </c>
       <c r="AA55" s="10">
-        <f>IF(OR(Z5&gt;20,Z10&gt;20),$C55*Z55, Z55)</f>
+        <f>IF(OR(Z3&gt;20,Z8&gt;20),$C55*Z55,Z55)</f>
         <v>0</v>
       </c>
       <c r="AB55" s="13">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="X58" s="13">
         <f>W58+($D58*W55)</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="Y58" s="14">
         <f>X58+(X55*$E58)</f>
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="AA58" s="10">
         <f t="shared" si="52"/>
@@ -55076,15 +55076,15 @@
       </c>
       <c r="AQ55">
         <f>'41_Wind_LowSeverity'!W55</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <f>'41_Wind_LowSeverity'!X55</f>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AS55">
         <f>'41_Wind_LowSeverity'!Y55</f>
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="AT55">
         <f>'42_Wind_ModSeverity'!Z55</f>
@@ -55818,11 +55818,11 @@
       </c>
       <c r="AR58">
         <f>'41_Wind_LowSeverity'!X58</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AS58">
         <f>'41_Wind_LowSeverity'!Y58</f>
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="AT58">
         <f>'42_Wind_ModSeverity'!Z58</f>

--- a/specifications/4_Wind/ScriptRules_Wind.xlsx
+++ b/specifications/4_Wind/ScriptRules_Wind.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="9930" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2720,20 +2720,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="101.28515625" style="24" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="22" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="61.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.42578125" style="18" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="23" customWidth="1"/>
     <col min="9" max="9" width="59.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="23" customWidth="1"/>
@@ -2772,7 +2772,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>92</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>87</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>89</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>88</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>90</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>91</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>82</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>84</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>83</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>85</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>86</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>93</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>95</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>94</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>96</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>97</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>68</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>69</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>70</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>73</v>
       </c>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>71</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="G22" s="19"/>
       <c r="J22" s="19"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>72</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="G23" s="19"/>
       <c r="J23" s="19"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>74</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>75</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>76</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>77</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>78</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>79</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>80</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>81</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>66</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>67</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>129</v>
       </c>
@@ -3145,7 +3145,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>130</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>131</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>132</v>
       </c>
@@ -3217,7 +3217,7 @@
       <c r="E37" s="20"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>133</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>134</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>108</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="J40" s="19"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>109</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>110</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>111</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="J43" s="19"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>112</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="J44" s="19"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>113</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>114</v>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>115</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="J47" s="19"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>135</v>
       </c>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="J48" s="19"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>136</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="J49" s="19"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>140</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>141</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>142</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>185</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>186</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>187</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>188</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>189</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>190</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>149</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>150</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>151</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>146</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>147</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>148</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>143</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>144</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>145</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>137</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>138</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>139</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>116</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>117</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>118</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>119</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>120</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>121</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>122</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>123</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="D78" s="19"/>
       <c r="J78" s="19"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>124</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="D79" s="19"/>
       <c r="J79" s="19"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>125</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>126</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>127</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="D82" s="19"/>
       <c r="J82" s="19"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>128</v>
       </c>
@@ -7428,7 +7428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="450" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1:E1048576"/>
       <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD55"/>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="14">
-        <f t="shared" ref="M3:M66" si="3">L3</f>
+        <f t="shared" ref="M3:M37" si="3">L3</f>
         <v>0</v>
       </c>
       <c r="O3" s="10">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="14">
-        <f t="shared" ref="Q3:Q66" si="5">P3</f>
+        <f t="shared" ref="Q3:Q37" si="5">P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="9">
@@ -7701,7 +7701,7 @@
         <v>2.9</v>
       </c>
       <c r="U3" s="14">
-        <f t="shared" ref="U3:U66" si="7">T3</f>
+        <f t="shared" ref="U3:U37" si="7">T3</f>
         <v>2.9</v>
       </c>
       <c r="V3" s="9">
@@ -7716,7 +7716,7 @@
         <v>14</v>
       </c>
       <c r="Y3" s="14">
-        <f t="shared" ref="Y3:Y66" si="9">X3</f>
+        <f t="shared" ref="Y3:Y37" si="9">X3</f>
         <v>14</v>
       </c>
       <c r="Z3" s="9">
@@ -7731,7 +7731,7 @@
         <v>12</v>
       </c>
       <c r="AC3" s="14">
-        <f t="shared" ref="AC3:AC66" si="11">AB3</f>
+        <f t="shared" ref="AC3:AC37" si="11">AB3</f>
         <v>12</v>
       </c>
     </row>
@@ -11094,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" ref="M40:M93" si="18">L40</f>
+        <f t="shared" ref="M40:M47" si="18">L40</f>
         <v>0</v>
       </c>
       <c r="N40" s="9">
@@ -11109,7 +11109,7 @@
         <v>2</v>
       </c>
       <c r="Q40" s="14">
-        <f t="shared" ref="Q40:Q93" si="19">P40</f>
+        <f t="shared" ref="Q40:Q47" si="19">P40</f>
         <v>2</v>
       </c>
       <c r="R40" s="9">
@@ -11124,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="14">
-        <f t="shared" ref="U40:U93" si="20">T40</f>
+        <f t="shared" ref="U40:U47" si="20">T40</f>
         <v>1</v>
       </c>
       <c r="V40" s="9">
@@ -11139,7 +11139,7 @@
         <v>2.5</v>
       </c>
       <c r="Y40" s="14">
-        <f t="shared" ref="Y40:Y93" si="21">X40</f>
+        <f t="shared" ref="Y40:Y47" si="21">X40</f>
         <v>2.5</v>
       </c>
       <c r="Z40" s="9">
@@ -11154,7 +11154,7 @@
         <v>2</v>
       </c>
       <c r="AC40" s="14">
-        <f t="shared" ref="AC40:AC93" si="22">AB40</f>
+        <f t="shared" ref="AC40:AC47" si="22">AB40</f>
         <v>2</v>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" ref="L47:L93" si="30">K47</f>
+        <f t="shared" ref="L47" si="30">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="14">
@@ -11790,7 +11790,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="13">
-        <f t="shared" ref="P47:P93" si="31">O47</f>
+        <f t="shared" ref="P47" si="31">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="14">
@@ -11805,7 +11805,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="13">
-        <f t="shared" ref="T47:T93" si="32">S47</f>
+        <f t="shared" ref="T47" si="32">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="14">
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="13">
-        <f t="shared" ref="X47:X93" si="33">W47</f>
+        <f t="shared" ref="X47" si="33">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="14">
@@ -11832,7 +11832,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="13">
-        <f t="shared" ref="AB47:AB93" si="34">AA47</f>
+        <f t="shared" ref="AB47" si="34">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="14">
@@ -12990,11 +12990,11 @@
         <v>0</v>
       </c>
       <c r="L59" s="13">
-        <f t="shared" ref="L59:L93" si="53">K59</f>
+        <f t="shared" ref="L59:L85" si="53">K59</f>
         <v>0</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" ref="M59:M93" si="54">L59</f>
+        <f t="shared" ref="M59:M79" si="54">L59</f>
         <v>0</v>
       </c>
       <c r="O59" s="10">
@@ -13002,11 +13002,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="13">
-        <f t="shared" ref="P59:P93" si="55">O59</f>
+        <f t="shared" ref="P59:P85" si="55">O59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="14">
-        <f t="shared" ref="Q59:Q93" si="56">P59</f>
+        <f t="shared" ref="Q59:Q79" si="56">P59</f>
         <v>0</v>
       </c>
       <c r="R59" s="9">
@@ -13017,11 +13017,11 @@
         <v>3.5</v>
       </c>
       <c r="T59" s="13">
-        <f t="shared" ref="T59:T93" si="57">S59</f>
+        <f t="shared" ref="T59:T85" si="57">S59</f>
         <v>3.5</v>
       </c>
       <c r="U59" s="14">
-        <f t="shared" ref="U59:U93" si="58">T59</f>
+        <f t="shared" ref="U59:U79" si="58">T59</f>
         <v>3.5</v>
       </c>
       <c r="W59" s="10">
@@ -13029,11 +13029,11 @@
         <v>0</v>
       </c>
       <c r="X59" s="13">
-        <f t="shared" ref="X59:X93" si="59">W59</f>
+        <f t="shared" ref="X59:X85" si="59">W59</f>
         <v>0</v>
       </c>
       <c r="Y59" s="14">
-        <f t="shared" ref="Y59:Y93" si="60">X59</f>
+        <f t="shared" ref="Y59:Y79" si="60">X59</f>
         <v>0</v>
       </c>
       <c r="AA59" s="10">
@@ -13041,11 +13041,11 @@
         <v>0</v>
       </c>
       <c r="AB59" s="13">
-        <f t="shared" ref="AB59:AB93" si="61">AA59</f>
+        <f t="shared" ref="AB59:AB85" si="61">AA59</f>
         <v>0</v>
       </c>
       <c r="AC59" s="14">
-        <f t="shared" ref="AC59:AC93" si="62">AB59</f>
+        <f t="shared" ref="AC59:AC79" si="62">AB59</f>
         <v>0</v>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="10">
-        <f t="shared" ref="K82:K93" si="65">J82</f>
+        <f t="shared" ref="K82:K85" si="65">J82</f>
         <v>0</v>
       </c>
       <c r="L82" s="13">
@@ -15091,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="10">
-        <f t="shared" ref="O82:O93" si="67">N82</f>
+        <f t="shared" ref="O82:O85" si="67">N82</f>
         <v>0</v>
       </c>
       <c r="P82" s="13">
@@ -15106,7 +15106,7 @@
         <v>2.5</v>
       </c>
       <c r="S82" s="10">
-        <f t="shared" ref="S82:S93" si="69">R82</f>
+        <f t="shared" ref="S82:S85" si="69">R82</f>
         <v>2.5</v>
       </c>
       <c r="T82" s="13">
@@ -15121,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="W82" s="10">
-        <f t="shared" ref="W82:W93" si="71">V82</f>
+        <f t="shared" ref="W82:W85" si="71">V82</f>
         <v>1</v>
       </c>
       <c r="X82" s="13">
@@ -15133,7 +15133,7 @@
         <v>1</v>
       </c>
       <c r="AA82" s="10">
-        <f t="shared" ref="AA82:AA93" si="73">Z82</f>
+        <f t="shared" ref="AA82:AA85" si="73">Z82</f>
         <v>0</v>
       </c>
       <c r="AB82" s="13">
